--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134024.3257304247</v>
+        <v>-134836.5625359613</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2909833.600547333</v>
+        <v>2909833.600547329</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,58 +1224,58 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="I9" t="n">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,55 +1291,55 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="H10" t="n">
+      <c r="R10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="I10" t="n">
+      <c r="S10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5465712312743</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>289.557888188956</v>
@@ -1376,19 +1376,19 @@
         <v>280.539192233484</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2813298033896</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4531458913667</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.8491597882406</v>
+        <v>322.8491597882405</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>15.75712414989079</v>
       </c>
       <c r="I11" t="n">
-        <v>61.82000905557415</v>
+        <v>61.8200090555741</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.55747718688178</v>
+        <v>84.55747718688173</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.2069945273324</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.7369697115373</v>
       </c>
       <c r="V11" t="n">
         <v>245.0529484714534</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>270.3530479494103</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.6533061821569</v>
       </c>
       <c r="Y11" t="n">
-        <v>246.4762995726526</v>
+        <v>301.0499039783556</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S12" t="n">
         <v>145.9321186766747</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.16328210597136</v>
+        <v>93.16328210597132</v>
       </c>
       <c r="C13" t="n">
-        <v>79.36327695137184</v>
+        <v>79.3632769513718</v>
       </c>
       <c r="D13" t="n">
-        <v>62.98464134895023</v>
+        <v>62.98464134895019</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>32.29601407483019</v>
       </c>
       <c r="G13" t="n">
-        <v>78.43302460524721</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>67.07973325206109</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.95714478044765</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.8162700318315</v>
       </c>
       <c r="T13" t="n">
-        <v>141.260930624206</v>
+        <v>141.2609306242059</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7486591160983</v>
+        <v>195.7486591160982</v>
       </c>
       <c r="V13" t="n">
-        <v>169.571418505597</v>
+        <v>169.5714185055969</v>
       </c>
       <c r="W13" t="n">
-        <v>153.3806860451147</v>
+        <v>194.7383045762102</v>
       </c>
       <c r="X13" t="n">
         <v>140.3834065720133</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C14" t="n">
         <v>289.557888188956</v>
       </c>
       <c r="D14" t="n">
-        <v>280.539192233484</v>
+        <v>15.31757513695129</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.2813298033895</v>
       </c>
       <c r="F14" t="n">
-        <v>245.1096216058038</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>322.8491597882405</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>235.4343762339799</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>61.82000905557412</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.55747718688175</v>
+        <v>84.55747718688174</v>
       </c>
       <c r="T14" t="n">
         <v>131.2069945273324</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.7369697115373</v>
       </c>
       <c r="V14" t="n">
         <v>245.0529484714534</v>
@@ -1673,7 +1673,7 @@
         <v>289.6533061821569</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>301.0499039783556</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S15" t="n">
         <v>145.9321186766747</v>
@@ -1771,19 +1771,19 @@
         <v>62.98464134895021</v>
       </c>
       <c r="E16" t="n">
-        <v>61.93239120472965</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.39931553291596</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>78.43302460524718</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.95714478044762</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.6340798798721</v>
+        <v>48.63407987987212</v>
       </c>
       <c r="S16" t="n">
         <v>118.8162700318315</v>
@@ -1825,13 +1825,13 @@
         <v>169.5714185055969</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.7383045762102</v>
       </c>
       <c r="X16" t="n">
-        <v>69.06176921984014</v>
+        <v>140.3834065720133</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.258274328081</v>
+        <v>114.920208523039</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1844,13 @@
         <v>224.1795505202353</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1908674779171</v>
+        <v>212.190867477917</v>
       </c>
       <c r="D17" t="n">
         <v>203.172171522445</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9143090923506</v>
+        <v>224.9143090923505</v>
       </c>
       <c r="F17" t="n">
         <v>244.0861251803277</v>
@@ -1859,7 +1859,7 @@
         <v>245.4821390772016</v>
       </c>
       <c r="H17" t="n">
-        <v>158.067355522941</v>
+        <v>158.0673555229409</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.19045647584282</v>
+        <v>7.19045647584279</v>
       </c>
       <c r="T17" t="n">
-        <v>53.83997381629345</v>
+        <v>53.83997381629342</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36994900049839</v>
+        <v>86.36994900049837</v>
       </c>
       <c r="V17" t="n">
         <v>167.6859277604144</v>
@@ -1907,7 +1907,7 @@
         <v>192.9860272383713</v>
       </c>
       <c r="X17" t="n">
-        <v>212.286285471118</v>
+        <v>212.2862854711179</v>
       </c>
       <c r="Y17" t="n">
         <v>223.6828832673167</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S18" t="n">
         <v>145.9321186766747</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.7962613949324</v>
+        <v>15.79626139493237</v>
       </c>
       <c r="C19" t="n">
-        <v>1.996256240332883</v>
+        <v>1.996256240332855</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.066003894208254</v>
+        <v>1.066003894208226</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.44924932079255</v>
+        <v>41.44924932079252</v>
       </c>
       <c r="T19" t="n">
-        <v>219.2463660838894</v>
+        <v>201.274329979151</v>
       </c>
       <c r="U19" t="n">
         <v>118.3816384050593</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20439779455799</v>
+        <v>92.20439779455796</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3712838651713</v>
+        <v>117.3712838651712</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01638586097437</v>
+        <v>63.01638586097434</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.89125361704205</v>
+        <v>53.89125361704203</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>224.1795505202353</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1908674779171</v>
+        <v>212.190867477917</v>
       </c>
       <c r="D20" t="n">
         <v>203.172171522445</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9143090923506</v>
+        <v>224.9143090923505</v>
       </c>
       <c r="F20" t="n">
         <v>244.0861251803277</v>
@@ -2096,7 +2096,7 @@
         <v>245.4821390772016</v>
       </c>
       <c r="H20" t="n">
-        <v>158.067355522941</v>
+        <v>158.0673555229409</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.19045647584282</v>
+        <v>7.19045647584279</v>
       </c>
       <c r="T20" t="n">
-        <v>53.83997381629345</v>
+        <v>53.83997381629342</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36994900049839</v>
+        <v>86.36994900049837</v>
       </c>
       <c r="V20" t="n">
         <v>167.6859277604144</v>
@@ -2144,7 +2144,7 @@
         <v>192.9860272383713</v>
       </c>
       <c r="X20" t="n">
-        <v>212.286285471118</v>
+        <v>212.2862854711179</v>
       </c>
       <c r="Y20" t="n">
         <v>223.6828832673167</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S21" t="n">
         <v>145.9321186766747</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.7962613949324</v>
+        <v>15.79626139493237</v>
       </c>
       <c r="C22" t="n">
-        <v>1.996256240332883</v>
+        <v>1.996256240332855</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.066003894208254</v>
+        <v>1.066003894208226</v>
       </c>
       <c r="H22" t="n">
-        <v>137.3804200659838</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.97203610473861</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.44924932079255</v>
+        <v>41.44924932079252</v>
       </c>
       <c r="T22" t="n">
-        <v>63.89390991316699</v>
+        <v>63.89390991316696</v>
       </c>
       <c r="U22" t="n">
         <v>118.3816384050593</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20439779455799</v>
+        <v>92.20439779455796</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3712838651713</v>
+        <v>117.3712838651712</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01638586097437</v>
+        <v>63.01638586097434</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.89125361704205</v>
+        <v>209.2437097877646</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>224.1795505202353</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1908674779171</v>
+        <v>212.190867477917</v>
       </c>
       <c r="D23" t="n">
         <v>203.172171522445</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9143090923506</v>
+        <v>224.9143090923505</v>
       </c>
       <c r="F23" t="n">
         <v>244.0861251803277</v>
@@ -2333,7 +2333,7 @@
         <v>245.4821390772016</v>
       </c>
       <c r="H23" t="n">
-        <v>158.067355522941</v>
+        <v>158.0673555229409</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.190456475842808</v>
+        <v>7.19045647584278</v>
       </c>
       <c r="T23" t="n">
-        <v>53.83997381629345</v>
+        <v>53.83997381629342</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36994900049839</v>
+        <v>86.36994900049837</v>
       </c>
       <c r="V23" t="n">
         <v>167.6859277604144</v>
@@ -2381,7 +2381,7 @@
         <v>192.9860272383713</v>
       </c>
       <c r="X23" t="n">
-        <v>212.286285471118</v>
+        <v>212.2862854711179</v>
       </c>
       <c r="Y23" t="n">
         <v>223.6828832673167</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S24" t="n">
         <v>145.9321186766747</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.7962613949324</v>
+        <v>15.79626139493237</v>
       </c>
       <c r="C25" t="n">
-        <v>1.996256240332883</v>
+        <v>1.996256240332855</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.066003894208254</v>
+        <v>1.066003894208226</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.97203610473861</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.44924932079255</v>
+        <v>196.8017054915152</v>
       </c>
       <c r="T25" t="n">
-        <v>63.89390991316699</v>
+        <v>63.89390991316696</v>
       </c>
       <c r="U25" t="n">
         <v>118.3816384050593</v>
       </c>
       <c r="V25" t="n">
-        <v>229.5848178605418</v>
+        <v>92.20439779455796</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3712838651713</v>
+        <v>117.3712838651712</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01638586097437</v>
+        <v>63.01638586097434</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.89125361704205</v>
+        <v>53.89125361704203</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.5730604774218</v>
+        <v>287.5730604774219</v>
       </c>
       <c r="C26" t="n">
         <v>275.5843774351036</v>
@@ -2561,19 +2561,19 @@
         <v>266.5656814796316</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3078190495371</v>
+        <v>288.3078190495372</v>
       </c>
       <c r="F26" t="n">
         <v>307.4796351375143</v>
       </c>
       <c r="G26" t="n">
-        <v>308.8756490343881</v>
+        <v>308.8756490343882</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4608654801275</v>
+        <v>221.4608654801276</v>
       </c>
       <c r="I26" t="n">
-        <v>47.84649830172171</v>
+        <v>47.84649830172175</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58396643302933</v>
+        <v>70.58396643302937</v>
       </c>
       <c r="T26" t="n">
         <v>117.23348377348</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7634589576849</v>
+        <v>149.763458957685</v>
       </c>
       <c r="V26" t="n">
         <v>231.079437717601</v>
@@ -2621,7 +2621,7 @@
         <v>275.6797954283045</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.0763932245032</v>
+        <v>287.0763932245033</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S27" t="n">
         <v>145.9321186766747</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.18977135211892</v>
+        <v>79.18977135211897</v>
       </c>
       <c r="C28" t="n">
-        <v>65.38976619751941</v>
+        <v>65.38976619751945</v>
       </c>
       <c r="D28" t="n">
-        <v>49.0111305950978</v>
+        <v>49.01113059509784</v>
       </c>
       <c r="E28" t="n">
-        <v>47.95888045087725</v>
+        <v>47.95888045087729</v>
       </c>
       <c r="F28" t="n">
-        <v>48.42580477906355</v>
+        <v>48.4258047790636</v>
       </c>
       <c r="G28" t="n">
-        <v>64.45951385139477</v>
+        <v>64.45951385139482</v>
       </c>
       <c r="H28" t="n">
-        <v>53.10622249820867</v>
+        <v>53.10622249820871</v>
       </c>
       <c r="I28" t="n">
-        <v>32.98363402659521</v>
+        <v>32.98363402659525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66056912601971</v>
+        <v>34.66056912601975</v>
       </c>
       <c r="S28" t="n">
         <v>104.8427592779791</v>
       </c>
       <c r="T28" t="n">
-        <v>127.2874198703535</v>
+        <v>127.2874198703536</v>
       </c>
       <c r="U28" t="n">
-        <v>181.7751483622458</v>
+        <v>181.7751483622459</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5979077517445</v>
+        <v>155.5979077517446</v>
       </c>
       <c r="W28" t="n">
         <v>180.7647938223578</v>
@@ -2798,7 +2798,7 @@
         <v>266.5656814796316</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3078190495372</v>
+        <v>288.3078190495371</v>
       </c>
       <c r="F29" t="n">
         <v>307.4796351375143</v>
@@ -2807,10 +2807,10 @@
         <v>308.8756490343882</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4608654801276</v>
+        <v>221.4608654801275</v>
       </c>
       <c r="I29" t="n">
-        <v>47.84649830172175</v>
+        <v>47.84649830172174</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58396643302937</v>
+        <v>70.58396643302936</v>
       </c>
       <c r="T29" t="n">
         <v>117.23348377348</v>
       </c>
       <c r="U29" t="n">
-        <v>149.763458957685</v>
+        <v>149.7634589576849</v>
       </c>
       <c r="V29" t="n">
         <v>231.079437717601</v>
@@ -2858,7 +2858,7 @@
         <v>275.6797954283045</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.0763932245033</v>
+        <v>287.0763932245032</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S30" t="n">
         <v>145.9321186766747</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.18977135211897</v>
+        <v>79.18977135211895</v>
       </c>
       <c r="C31" t="n">
-        <v>65.38976619751945</v>
+        <v>65.38976619751944</v>
       </c>
       <c r="D31" t="n">
-        <v>49.01113059509784</v>
+        <v>49.01113059509782</v>
       </c>
       <c r="E31" t="n">
-        <v>47.95888045087729</v>
+        <v>47.95888045087727</v>
       </c>
       <c r="F31" t="n">
-        <v>48.4258047790636</v>
+        <v>48.42580477906358</v>
       </c>
       <c r="G31" t="n">
-        <v>64.45951385139482</v>
+        <v>64.4595138513948</v>
       </c>
       <c r="H31" t="n">
-        <v>53.10622249820871</v>
+        <v>53.10622249820869</v>
       </c>
       <c r="I31" t="n">
-        <v>32.98363402659525</v>
+        <v>32.98363402659524</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66056912601975</v>
+        <v>34.66056912601974</v>
       </c>
       <c r="S31" t="n">
         <v>104.8427592779791</v>
       </c>
       <c r="T31" t="n">
-        <v>127.2874198703536</v>
+        <v>127.2874198703535</v>
       </c>
       <c r="U31" t="n">
         <v>181.7751483622459</v>
       </c>
       <c r="V31" t="n">
-        <v>155.5979077517446</v>
+        <v>155.5979077517445</v>
       </c>
       <c r="W31" t="n">
         <v>180.7647938223578</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.983356382702</v>
+        <v>284.9833563827019</v>
       </c>
       <c r="C32" t="n">
-        <v>272.9946733403838</v>
+        <v>272.9946733403837</v>
       </c>
       <c r="D32" t="n">
-        <v>263.9759773849117</v>
+        <v>263.9759773849116</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7181149548173</v>
+        <v>285.7181149548172</v>
       </c>
       <c r="F32" t="n">
-        <v>304.8899310427944</v>
+        <v>304.8899310427943</v>
       </c>
       <c r="G32" t="n">
-        <v>306.2859449396683</v>
+        <v>306.2859449396682</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8711613854077</v>
+        <v>218.8711613854076</v>
       </c>
       <c r="I32" t="n">
-        <v>45.25679420700189</v>
+        <v>45.25679420700179</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.99426233830951</v>
+        <v>67.99426233830941</v>
       </c>
       <c r="T32" t="n">
-        <v>114.6437796787602</v>
+        <v>114.6437796787601</v>
       </c>
       <c r="U32" t="n">
-        <v>147.1737548629651</v>
+        <v>147.173754862965</v>
       </c>
       <c r="V32" t="n">
-        <v>228.4897336228811</v>
+        <v>228.489733622881</v>
       </c>
       <c r="W32" t="n">
-        <v>253.7898331008381</v>
+        <v>253.7898331008379</v>
       </c>
       <c r="X32" t="n">
-        <v>273.0900913335847</v>
+        <v>273.0900913335846</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.4866891297834</v>
+        <v>284.4866891297833</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S33" t="n">
         <v>145.9321186766747</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.6000672573991</v>
+        <v>76.600067257399</v>
       </c>
       <c r="C34" t="n">
-        <v>62.80006210279959</v>
+        <v>62.80006210279949</v>
       </c>
       <c r="D34" t="n">
-        <v>46.42142650037798</v>
+        <v>46.42142650037788</v>
       </c>
       <c r="E34" t="n">
-        <v>45.36917635615742</v>
+        <v>45.36917635615733</v>
       </c>
       <c r="F34" t="n">
-        <v>45.83610068434373</v>
+        <v>45.83610068434363</v>
       </c>
       <c r="G34" t="n">
-        <v>61.86980975667496</v>
+        <v>61.86980975667485</v>
       </c>
       <c r="H34" t="n">
-        <v>50.51651840348884</v>
+        <v>50.51651840348873</v>
       </c>
       <c r="I34" t="n">
-        <v>30.39392993187539</v>
+        <v>30.39392993187529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07086503129987</v>
+        <v>32.07086503129977</v>
       </c>
       <c r="S34" t="n">
-        <v>102.2530551832592</v>
+        <v>102.2530551832591</v>
       </c>
       <c r="T34" t="n">
-        <v>124.6977157756337</v>
+        <v>124.6977157756336</v>
       </c>
       <c r="U34" t="n">
-        <v>179.185444267526</v>
+        <v>179.1854442675259</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0082036570247</v>
+        <v>153.0082036570246</v>
       </c>
       <c r="W34" t="n">
-        <v>178.175089727638</v>
+        <v>178.1750897276378</v>
       </c>
       <c r="X34" t="n">
-        <v>123.8201917234411</v>
+        <v>123.820191723441</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6950594795088</v>
+        <v>114.6950594795087</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3901961984366</v>
+        <v>237.3901961984367</v>
       </c>
       <c r="C35" t="n">
-        <v>225.4015131561183</v>
+        <v>225.4015131561184</v>
       </c>
       <c r="D35" t="n">
-        <v>216.3828172006463</v>
+        <v>216.3828172006464</v>
       </c>
       <c r="E35" t="n">
         <v>238.1249547705519</v>
@@ -3278,10 +3278,10 @@
         <v>257.296770858529</v>
       </c>
       <c r="G35" t="n">
-        <v>258.6927847554028</v>
+        <v>258.692784755403</v>
       </c>
       <c r="H35" t="n">
-        <v>171.2780012011422</v>
+        <v>171.2780012011423</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.40110215404408</v>
+        <v>20.40110215404414</v>
       </c>
       <c r="T35" t="n">
-        <v>67.05061949449473</v>
+        <v>67.05061949449478</v>
       </c>
       <c r="U35" t="n">
-        <v>99.58059467869967</v>
+        <v>99.58059467869973</v>
       </c>
       <c r="V35" t="n">
-        <v>180.8965734386157</v>
+        <v>180.8965734386158</v>
       </c>
       <c r="W35" t="n">
-        <v>206.1966729165726</v>
+        <v>206.1966729165727</v>
       </c>
       <c r="X35" t="n">
-        <v>225.4969311493192</v>
+        <v>225.4969311493193</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.893528945518</v>
+        <v>236.8935289455181</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S36" t="n">
         <v>145.9321186766747</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.00690707313368</v>
+        <v>29.00690707313373</v>
       </c>
       <c r="C37" t="n">
-        <v>15.20690191853416</v>
+        <v>15.20690191853421</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.27664957240953</v>
+        <v>14.27664957240959</v>
       </c>
       <c r="H37" t="n">
-        <v>2.923358219223406</v>
+        <v>2.923358219223463</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.65989499899382</v>
+        <v>54.65989499899388</v>
       </c>
       <c r="T37" t="n">
-        <v>97.42719676085454</v>
+        <v>77.10455559136831</v>
       </c>
       <c r="U37" t="n">
         <v>131.5922840832606</v>
@@ -3484,13 +3484,13 @@
         <v>105.4150434727593</v>
       </c>
       <c r="W37" t="n">
-        <v>130.5819295433725</v>
+        <v>130.5819295433726</v>
       </c>
       <c r="X37" t="n">
-        <v>76.22703153917564</v>
+        <v>76.2270315391757</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.10189929524333</v>
+        <v>87.42454046472906</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>237.3901961984366</v>
       </c>
       <c r="C38" t="n">
-        <v>225.4015131561183</v>
+        <v>225.4015131561184</v>
       </c>
       <c r="D38" t="n">
         <v>216.3828172006463</v>
@@ -3515,10 +3515,10 @@
         <v>257.296770858529</v>
       </c>
       <c r="G38" t="n">
-        <v>258.6927847554028</v>
+        <v>258.6927847554029</v>
       </c>
       <c r="H38" t="n">
-        <v>171.2780012011422</v>
+        <v>171.2780012011423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.40110215404408</v>
+        <v>20.40110215404411</v>
       </c>
       <c r="T38" t="n">
-        <v>67.05061949449473</v>
+        <v>67.05061949449475</v>
       </c>
       <c r="U38" t="n">
-        <v>99.58059467869967</v>
+        <v>99.5805946786997</v>
       </c>
       <c r="V38" t="n">
         <v>180.8965734386157</v>
       </c>
       <c r="W38" t="n">
-        <v>206.1966729165726</v>
+        <v>206.1966729165727</v>
       </c>
       <c r="X38" t="n">
-        <v>225.4969311493192</v>
+        <v>225.4969311493193</v>
       </c>
       <c r="Y38" t="n">
         <v>236.893528945518</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S39" t="n">
         <v>145.9321186766747</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.00690707313368</v>
+        <v>49.3295482426197</v>
       </c>
       <c r="C40" t="n">
-        <v>15.20690191853416</v>
+        <v>15.20690191853419</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.27664957240953</v>
+        <v>14.27664957240956</v>
       </c>
       <c r="H40" t="n">
-        <v>2.923358219223406</v>
+        <v>2.923358219223434</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.32264116948627</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.65989499899382</v>
+        <v>54.65989499899385</v>
       </c>
       <c r="T40" t="n">
-        <v>77.10455559136825</v>
+        <v>77.10455559136828</v>
       </c>
       <c r="U40" t="n">
         <v>131.5922840832606</v>
@@ -3721,13 +3721,13 @@
         <v>105.4150434727593</v>
       </c>
       <c r="W40" t="n">
-        <v>130.5819295433725</v>
+        <v>130.5819295433726</v>
       </c>
       <c r="X40" t="n">
-        <v>76.22703153917564</v>
+        <v>76.22703153917567</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.10189929524333</v>
+        <v>67.10189929524336</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.3901961984364</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C41" t="n">
-        <v>225.4015131561182</v>
+        <v>225.4015131561184</v>
       </c>
       <c r="D41" t="n">
-        <v>216.3828172006461</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E41" t="n">
-        <v>238.1249547705517</v>
+        <v>238.1249547705519</v>
       </c>
       <c r="F41" t="n">
-        <v>257.2967708585288</v>
+        <v>257.296770858529</v>
       </c>
       <c r="G41" t="n">
-        <v>258.6927847554027</v>
+        <v>258.6927847554029</v>
       </c>
       <c r="H41" t="n">
-        <v>171.2780012011421</v>
+        <v>171.2780012011423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.40110215404393</v>
+        <v>20.40110215404411</v>
       </c>
       <c r="T41" t="n">
-        <v>67.05061949449455</v>
+        <v>67.05061949449475</v>
       </c>
       <c r="U41" t="n">
-        <v>99.5805946786995</v>
+        <v>99.5805946786997</v>
       </c>
       <c r="V41" t="n">
-        <v>180.8965734386155</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W41" t="n">
-        <v>206.1966729165725</v>
+        <v>206.1966729165727</v>
       </c>
       <c r="X41" t="n">
-        <v>225.4969311493191</v>
+        <v>225.4969311493193</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.8935289455178</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S42" t="n">
         <v>145.9321186766747</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.0069070731335</v>
+        <v>29.0069070731337</v>
       </c>
       <c r="C43" t="n">
-        <v>15.20690191853399</v>
+        <v>15.20690191853419</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.27664957240936</v>
+        <v>14.27664957240956</v>
       </c>
       <c r="H43" t="n">
-        <v>2.923358219223236</v>
+        <v>2.923358219223434</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.65989499899365</v>
+        <v>54.65989499899385</v>
       </c>
       <c r="T43" t="n">
-        <v>97.42719676085633</v>
+        <v>97.42719676085432</v>
       </c>
       <c r="U43" t="n">
-        <v>131.5922840832604</v>
+        <v>131.5922840832606</v>
       </c>
       <c r="V43" t="n">
-        <v>105.4150434727591</v>
+        <v>105.4150434727593</v>
       </c>
       <c r="W43" t="n">
-        <v>130.5819295433724</v>
+        <v>130.5819295433726</v>
       </c>
       <c r="X43" t="n">
-        <v>76.22703153917547</v>
+        <v>76.22703153917567</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.10189929524316</v>
+        <v>67.10189929524336</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.3901961984364</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C44" t="n">
-        <v>225.4015131561182</v>
+        <v>225.4015131561184</v>
       </c>
       <c r="D44" t="n">
-        <v>216.3828172006461</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E44" t="n">
-        <v>238.1249547705517</v>
+        <v>238.1249547705519</v>
       </c>
       <c r="F44" t="n">
-        <v>257.2967708585288</v>
+        <v>257.296770858529</v>
       </c>
       <c r="G44" t="n">
-        <v>258.6927847554027</v>
+        <v>258.6927847554029</v>
       </c>
       <c r="H44" t="n">
-        <v>171.2780012011421</v>
+        <v>171.2780012011423</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.40110215404391</v>
+        <v>20.40110215404412</v>
       </c>
       <c r="T44" t="n">
-        <v>67.05061949449455</v>
+        <v>67.05061949449475</v>
       </c>
       <c r="U44" t="n">
-        <v>99.5805946786995</v>
+        <v>99.5805946786997</v>
       </c>
       <c r="V44" t="n">
-        <v>180.8965734386155</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W44" t="n">
-        <v>206.1966729165725</v>
+        <v>206.1966729165727</v>
       </c>
       <c r="X44" t="n">
-        <v>225.49693114932</v>
+        <v>225.4969311493193</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.8935289455178</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S45" t="n">
         <v>145.9321186766747</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.0069070731335</v>
+        <v>29.0069070731337</v>
       </c>
       <c r="C46" t="n">
-        <v>15.20690191853399</v>
+        <v>15.20690191853419</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.27664957240936</v>
+        <v>14.27664957240956</v>
       </c>
       <c r="H46" t="n">
-        <v>2.923358219223236</v>
+        <v>2.923358219223434</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.65989499899365</v>
+        <v>54.65989499899385</v>
       </c>
       <c r="T46" t="n">
-        <v>97.42719676085633</v>
+        <v>77.10455559136828</v>
       </c>
       <c r="U46" t="n">
-        <v>131.5922840832604</v>
+        <v>131.5922840832606</v>
       </c>
       <c r="V46" t="n">
-        <v>105.4150434727591</v>
+        <v>105.4150434727593</v>
       </c>
       <c r="W46" t="n">
-        <v>130.5819295433724</v>
+        <v>130.5819295433726</v>
       </c>
       <c r="X46" t="n">
-        <v>76.22703153917547</v>
+        <v>96.54967270866166</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.10189929524316</v>
+        <v>67.10189929524336</v>
       </c>
     </row>
   </sheetData>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E8" t="n">
         <v>29.92792848229982</v>
@@ -4802,22 +4802,22 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N8" t="n">
-        <v>10.3099691464193</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
         <v>30.12913313662339</v>
@@ -4844,10 +4844,10 @@
         <v>40.03871513172544</v>
       </c>
       <c r="X8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
         <v>10.71035629773655</v>
@@ -4899,34 +4899,34 @@
         <v>30.12913313662339</v>
       </c>
       <c r="P9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S9" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T9" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U9" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V9" t="n">
-        <v>31.13313425091136</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W9" t="n">
-        <v>31.13313425091136</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
         <v>0.8007743026345088</v>
@@ -4966,46 +4966,46 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O10" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R10" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="S10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="T10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="U10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="V10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="W10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1645.07667582999</v>
+        <v>1030.958138915984</v>
       </c>
       <c r="C11" t="n">
-        <v>1352.59396048761</v>
+        <v>738.4754235736043</v>
       </c>
       <c r="D11" t="n">
-        <v>1069.221039039647</v>
+        <v>455.1025021256407</v>
       </c>
       <c r="E11" t="n">
-        <v>763.8863624705664</v>
+        <v>455.1025021256407</v>
       </c>
       <c r="F11" t="n">
-        <v>439.1862151055495</v>
+        <v>455.1025021256407</v>
       </c>
       <c r="G11" t="n">
-        <v>113.075952693185</v>
+        <v>128.9922397132768</v>
       </c>
       <c r="H11" t="n">
         <v>113.075952693185</v>
@@ -5039,25 +5039,25 @@
         <v>50.631499101696</v>
       </c>
       <c r="J11" t="n">
-        <v>132.8250736341229</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K11" t="n">
-        <v>440.6227620154774</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L11" t="n">
-        <v>872.4430186850942</v>
+        <v>907.3907625372511</v>
       </c>
       <c r="M11" t="n">
-        <v>1359.075915446788</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N11" t="n">
-        <v>1832.312212842878</v>
+        <v>1867.259956695034</v>
       </c>
       <c r="O11" t="n">
-        <v>2226.932839750809</v>
+        <v>2261.880583602966</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.5749550848</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.5749550848</v>
@@ -5069,22 +5069,22 @@
         <v>2446.163361966738</v>
       </c>
       <c r="T11" t="n">
-        <v>2446.163361966738</v>
+        <v>2313.631044262362</v>
       </c>
       <c r="U11" t="n">
-        <v>2446.163361966738</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V11" t="n">
-        <v>2198.635131187492</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W11" t="n">
-        <v>2198.635131187492</v>
+        <v>1627.628048169027</v>
       </c>
       <c r="X11" t="n">
-        <v>2198.635131187492</v>
+        <v>1335.048951015333</v>
       </c>
       <c r="Y11" t="n">
-        <v>1949.669172023196</v>
+        <v>1030.958138915984</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>137.7723726368144</v>
       </c>
       <c r="K12" t="n">
-        <v>413.2166240983116</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="L12" t="n">
-        <v>840.8288884799131</v>
+        <v>565.384637018416</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.968746744155</v>
+        <v>935.8484231522291</v>
       </c>
       <c r="N12" t="n">
         <v>1521.129018650604</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>388.8313182310679</v>
+        <v>227.0395116018495</v>
       </c>
       <c r="C13" t="n">
-        <v>308.666392017561</v>
+        <v>146.8745853883426</v>
       </c>
       <c r="D13" t="n">
-        <v>245.0455421701365</v>
+        <v>83.25373554091811</v>
       </c>
       <c r="E13" t="n">
-        <v>245.0455421701365</v>
+        <v>83.25373554091811</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0455421701365</v>
+        <v>50.631499101696</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8202647910988</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H13" t="n">
-        <v>98.06295847588555</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I13" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J13" t="n">
-        <v>96.30823560199545</v>
+        <v>96.30823560199551</v>
       </c>
       <c r="K13" t="n">
-        <v>245.3024804191786</v>
+        <v>245.3024804191787</v>
       </c>
       <c r="L13" t="n">
         <v>469.0514186062462</v>
       </c>
       <c r="M13" t="n">
-        <v>712.114973706438</v>
+        <v>712.1149737064379</v>
       </c>
       <c r="N13" t="n">
-        <v>954.7180978637572</v>
+        <v>954.7180978637571</v>
       </c>
       <c r="O13" t="n">
         <v>1174.575435216288</v>
@@ -5224,25 +5224,25 @@
         <v>1423.949153884686</v>
       </c>
       <c r="S13" t="n">
-        <v>1423.949153884686</v>
+        <v>1303.932719509099</v>
       </c>
       <c r="T13" t="n">
-        <v>1281.261345173367</v>
+        <v>1161.24491079778</v>
       </c>
       <c r="U13" t="n">
-        <v>1083.535426874277</v>
+        <v>963.5189924986906</v>
       </c>
       <c r="V13" t="n">
-        <v>912.2511657575128</v>
+        <v>792.2347313819261</v>
       </c>
       <c r="W13" t="n">
-        <v>757.3211798533565</v>
+        <v>595.529373224138</v>
       </c>
       <c r="X13" t="n">
-        <v>615.5197590735451</v>
+        <v>453.7279524443266</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.9356435906349</v>
+        <v>321.1438369614165</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1500.439829511836</v>
+        <v>726.3656427227779</v>
       </c>
       <c r="C14" t="n">
-        <v>1207.957114169456</v>
+        <v>433.882927380398</v>
       </c>
       <c r="D14" t="n">
-        <v>924.5841927214922</v>
+        <v>418.4106292622654</v>
       </c>
       <c r="E14" t="n">
-        <v>924.5841927214922</v>
+        <v>113.075952693185</v>
       </c>
       <c r="F14" t="n">
-        <v>676.9987163519934</v>
+        <v>113.075952693185</v>
       </c>
       <c r="G14" t="n">
-        <v>350.8884539396294</v>
+        <v>113.075952693185</v>
       </c>
       <c r="H14" t="n">
-        <v>113.0759526931851</v>
+        <v>113.075952693185</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J14" t="n">
         <v>167.7728174862798</v>
@@ -5288,10 +5288,10 @@
         <v>1394.023659298945</v>
       </c>
       <c r="N14" t="n">
-        <v>1680.442745084107</v>
+        <v>1867.259956695034</v>
       </c>
       <c r="O14" t="n">
-        <v>2075.063371992039</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P14" t="n">
         <v>2379.705487326029</v>
@@ -5309,19 +5309,19 @@
         <v>2313.631044262362</v>
       </c>
       <c r="U14" t="n">
-        <v>2313.631044262362</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V14" t="n">
-        <v>2066.102813483116</v>
+        <v>1900.711934986614</v>
       </c>
       <c r="W14" t="n">
-        <v>1793.01892666553</v>
+        <v>1627.628048169027</v>
       </c>
       <c r="X14" t="n">
-        <v>1500.439829511836</v>
+        <v>1335.048951015334</v>
       </c>
       <c r="Y14" t="n">
-        <v>1500.439829511836</v>
+        <v>1030.958138915984</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.8525970584468</v>
+        <v>916.8525970584473</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1489242994015</v>
+        <v>755.1489242994021</v>
       </c>
       <c r="D15" t="n">
-        <v>616.3102872896136</v>
+        <v>616.3102872896141</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2822773464849</v>
+        <v>469.2822773464852</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5884792963592</v>
+        <v>334.5884792963597</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1503391504149</v>
+        <v>206.1503391504152</v>
       </c>
       <c r="H15" t="n">
         <v>109.0167463785074</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J15" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K15" t="n">
         <v>326.0757505631932</v>
@@ -5364,37 +5364,37 @@
         <v>753.6880149447948</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.946653497989</v>
+        <v>1292.286959772228</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.227248996364</v>
+        <v>1877.567555270603</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.136418464799</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.574955084799</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="Q15" t="n">
-        <v>2531.574955084799</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="R15" t="n">
-        <v>2489.818465848146</v>
+        <v>2489.818465848148</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.412285366657</v>
+        <v>2342.412285366658</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.897535411934</v>
+        <v>2154.897535411935</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.42184563069</v>
+        <v>1936.421845630691</v>
       </c>
       <c r="V15" t="n">
-        <v>1708.026223079024</v>
+        <v>1708.026223079025</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.710354312334</v>
+        <v>1466.710354312335</v>
       </c>
       <c r="X15" t="n">
         <v>1268.793366190129</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>446.661594479133</v>
+        <v>194.4172751626273</v>
       </c>
       <c r="C16" t="n">
-        <v>366.4966682656261</v>
+        <v>114.2523489491205</v>
       </c>
       <c r="D16" t="n">
-        <v>302.8758184182017</v>
+        <v>50.631499101696</v>
       </c>
       <c r="E16" t="n">
-        <v>240.3178475043333</v>
+        <v>50.631499101696</v>
       </c>
       <c r="F16" t="n">
-        <v>177.2882358549232</v>
+        <v>50.631499101696</v>
       </c>
       <c r="G16" t="n">
-        <v>98.06295847588552</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H16" t="n">
-        <v>98.06295847588552</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J16" t="n">
-        <v>96.30823560199549</v>
+        <v>96.30823560199548</v>
       </c>
       <c r="K16" t="n">
         <v>245.3024804191787</v>
@@ -5467,19 +5467,19 @@
         <v>1112.119577585788</v>
       </c>
       <c r="U16" t="n">
-        <v>914.393659286698</v>
+        <v>914.3936592866988</v>
       </c>
       <c r="V16" t="n">
-        <v>743.1093981699335</v>
+        <v>743.1093981699343</v>
       </c>
       <c r="W16" t="n">
-        <v>743.1093981699335</v>
+        <v>546.4040400121462</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3500353216101</v>
+        <v>404.6026192323347</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.7659198387</v>
+        <v>288.5216005221944</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1137.219479298934</v>
       </c>
       <c r="D17" t="n">
-        <v>931.995063619697</v>
+        <v>931.9950636196968</v>
       </c>
       <c r="E17" t="n">
-        <v>704.8088928193429</v>
+        <v>704.8088928193426</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2572512230522</v>
+        <v>458.257251223052</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2954945794142</v>
+        <v>210.2954945794141</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J17" t="n">
         <v>167.7728174862798</v>
       </c>
       <c r="K17" t="n">
-        <v>288.7532942567069</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L17" t="n">
-        <v>720.5735509263237</v>
+        <v>907.3907625372511</v>
       </c>
       <c r="M17" t="n">
-        <v>1207.206447688017</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N17" t="n">
-        <v>1680.442745084107</v>
+        <v>1867.259956695034</v>
       </c>
       <c r="O17" t="n">
-        <v>2075.063371992039</v>
+        <v>2261.880583602966</v>
       </c>
       <c r="P17" t="n">
         <v>2379.705487326029</v>
@@ -5540,19 +5540,19 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.311867735465</v>
+        <v>2524.311867735464</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.928055799815</v>
+        <v>2469.928055799814</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.685683072039</v>
+        <v>2382.685683072038</v>
       </c>
       <c r="V17" t="n">
         <v>2213.305958061519</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.370577012659</v>
+        <v>2018.370577012658</v>
       </c>
       <c r="X17" t="n">
         <v>1803.939985627691</v>
@@ -5589,7 +5589,7 @@
         <v>109.0167463785074</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J18" t="n">
         <v>137.7723726368144</v>
@@ -5598,16 +5598,16 @@
         <v>413.2166240983116</v>
       </c>
       <c r="L18" t="n">
-        <v>840.8288884799131</v>
+        <v>840.8288884799132</v>
       </c>
       <c r="M18" t="n">
         <v>1397.968746744155</v>
       </c>
       <c r="N18" t="n">
-        <v>1983.24934224253</v>
+        <v>1981.038188119038</v>
       </c>
       <c r="O18" t="n">
-        <v>2337.476724739037</v>
+        <v>1981.038188119038</v>
       </c>
       <c r="P18" t="n">
         <v>2337.476724739037</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.72469115678807</v>
+        <v>53.724691156788</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70827071200738</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70827071200738</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70827071200738</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70827071200738</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="G19" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K19" t="n">
         <v>111.9547763562302</v>
@@ -5692,31 +5692,31 @@
         <v>782.3679601895349</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.3679601895349</v>
+        <v>764.2143883665666</v>
       </c>
       <c r="R19" t="n">
-        <v>782.3679601895349</v>
+        <v>764.2143883665666</v>
       </c>
       <c r="S19" t="n">
-        <v>740.5000315826737</v>
+        <v>722.3464597597055</v>
       </c>
       <c r="T19" t="n">
-        <v>519.0390557403612</v>
+        <v>519.0390557403609</v>
       </c>
       <c r="U19" t="n">
-        <v>399.4616432099983</v>
+        <v>399.461643209998</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3258878619599</v>
+        <v>306.3258878619597</v>
       </c>
       <c r="W19" t="n">
-        <v>187.769035472898</v>
+        <v>187.7690354728979</v>
       </c>
       <c r="X19" t="n">
-        <v>124.1161204618128</v>
+        <v>124.1161204618127</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.68051074762887</v>
+        <v>69.68051074762879</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>1137.219479298934</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9950636196968</v>
+        <v>931.9950636196966</v>
       </c>
       <c r="E20" t="n">
-        <v>704.8088928193426</v>
+        <v>704.8088928193422</v>
       </c>
       <c r="F20" t="n">
         <v>458.257251223052</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2954945794142</v>
+        <v>210.2954945794141</v>
       </c>
       <c r="H20" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I20" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J20" t="n">
-        <v>132.8250736341234</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K20" t="n">
-        <v>440.6227620154779</v>
+        <v>288.753294256706</v>
       </c>
       <c r="L20" t="n">
-        <v>872.4430186850947</v>
+        <v>720.5735509263228</v>
       </c>
       <c r="M20" t="n">
-        <v>1359.075915446788</v>
+        <v>1207.206447688016</v>
       </c>
       <c r="N20" t="n">
-        <v>1832.312212842878</v>
+        <v>1680.442745084106</v>
       </c>
       <c r="O20" t="n">
-        <v>2226.93283975081</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P20" t="n">
-        <v>2531.5749550848</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.5749550848</v>
@@ -5786,7 +5786,7 @@
         <v>2382.685683072038</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W20" t="n">
         <v>2018.370577012658</v>
@@ -5826,19 +5826,19 @@
         <v>109.0167463785074</v>
       </c>
       <c r="I21" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J21" t="n">
-        <v>50.63149910169601</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="K21" t="n">
-        <v>326.0757505631932</v>
+        <v>413.2166240983116</v>
       </c>
       <c r="L21" t="n">
-        <v>753.6880149447948</v>
+        <v>413.2166240983116</v>
       </c>
       <c r="M21" t="n">
-        <v>1310.827873209037</v>
+        <v>935.8484231522277</v>
       </c>
       <c r="N21" t="n">
         <v>1521.129018650603</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>192.4927922335394</v>
+        <v>53.724691156788</v>
       </c>
       <c r="C22" t="n">
-        <v>190.4763717887587</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="D22" t="n">
-        <v>190.4763717887587</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="E22" t="n">
-        <v>190.4763717887587</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="F22" t="n">
-        <v>190.4763717887587</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="G22" t="n">
-        <v>189.3996001784473</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I22" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J22" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K22" t="n">
         <v>111.9547763562302</v>
@@ -5929,31 +5929,31 @@
         <v>782.3679601895349</v>
       </c>
       <c r="Q22" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="R22" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="S22" t="n">
-        <v>722.3464597597055</v>
+        <v>740.5000315826737</v>
       </c>
       <c r="T22" t="n">
-        <v>657.8071568171125</v>
+        <v>675.9607286400808</v>
       </c>
       <c r="U22" t="n">
-        <v>538.2297442867496</v>
+        <v>556.3833161097178</v>
       </c>
       <c r="V22" t="n">
-        <v>445.0939889387112</v>
+        <v>463.2475607616795</v>
       </c>
       <c r="W22" t="n">
-        <v>326.5371365496493</v>
+        <v>344.6907083726177</v>
       </c>
       <c r="X22" t="n">
-        <v>262.8842215385641</v>
+        <v>281.0377933615325</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.4486118243802</v>
+        <v>69.68051074762879</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1137.219479298934</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9950636196968</v>
+        <v>931.9950636196966</v>
       </c>
       <c r="E23" t="n">
-        <v>704.8088928193426</v>
+        <v>704.8088928193424</v>
       </c>
       <c r="F23" t="n">
-        <v>458.257251223052</v>
+        <v>458.2572512230518</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2954945794142</v>
+        <v>210.2954945794141</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63149910169601</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K23" t="n">
-        <v>358.4291874830505</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L23" t="n">
-        <v>790.2494441526674</v>
+        <v>907.3907625372511</v>
       </c>
       <c r="M23" t="n">
-        <v>1276.882340914361</v>
+        <v>1207.206447688016</v>
       </c>
       <c r="N23" t="n">
-        <v>1750.118638310451</v>
+        <v>1680.442745084106</v>
       </c>
       <c r="O23" t="n">
-        <v>2144.739265218383</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P23" t="n">
-        <v>2449.381380552373</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.5749550848</v>
@@ -6017,16 +6017,16 @@
         <v>2524.311867735464</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.928055799815</v>
+        <v>2469.928055799814</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.685683072039</v>
+        <v>2382.685683072038</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.370577012659</v>
+        <v>2018.370577012658</v>
       </c>
       <c r="X23" t="n">
         <v>1803.939985627691</v>
@@ -6063,7 +6063,7 @@
         <v>109.0167463785074</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J24" t="n">
         <v>137.7723726368144</v>
@@ -6072,19 +6072,19 @@
         <v>413.2166240983116</v>
       </c>
       <c r="L24" t="n">
-        <v>840.8288884799131</v>
+        <v>840.8288884799132</v>
       </c>
       <c r="M24" t="n">
         <v>1397.968746744155</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.227248996364</v>
+        <v>1521.129018650603</v>
       </c>
       <c r="O24" t="n">
-        <v>2175.136418464799</v>
+        <v>1981.038188119038</v>
       </c>
       <c r="P24" t="n">
-        <v>2531.574955084799</v>
+        <v>2337.476724739037</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.574955084799</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.72469115678807</v>
+        <v>53.724691156788</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70827071200738</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70827071200738</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70827071200738</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70827071200738</v>
+        <v>51.70827071200734</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63149910169601</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K25" t="n">
         <v>111.9547763562302</v>
@@ -6166,31 +6166,31 @@
         <v>782.3679601895349</v>
       </c>
       <c r="Q25" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="R25" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="S25" t="n">
-        <v>722.3464597597055</v>
+        <v>583.5783586829539</v>
       </c>
       <c r="T25" t="n">
-        <v>657.8071568171125</v>
+        <v>519.0390557403609</v>
       </c>
       <c r="U25" t="n">
-        <v>538.2297442867496</v>
+        <v>399.461643209998</v>
       </c>
       <c r="V25" t="n">
-        <v>306.3258878619599</v>
+        <v>306.3258878619597</v>
       </c>
       <c r="W25" t="n">
-        <v>187.769035472898</v>
+        <v>187.7690354728979</v>
       </c>
       <c r="X25" t="n">
-        <v>124.1161204618128</v>
+        <v>124.1161204618127</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.68051074762887</v>
+        <v>69.68051074762879</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.368283428341</v>
+        <v>1803.368283428342</v>
       </c>
       <c r="C26" t="n">
         <v>1525.000225413085</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.741961292244</v>
+        <v>1255.741961292245</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5219420502879</v>
+        <v>964.5219420502887</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9364520123945</v>
+        <v>653.9364520123954</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9408469271536</v>
+        <v>341.9408469271548</v>
       </c>
       <c r="H26" t="n">
         <v>118.2430030078329</v>
@@ -6224,22 +6224,22 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J26" t="n">
-        <v>188.4268280990911</v>
+        <v>288.5592683370141</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7292596894084</v>
+        <v>597.7292596894089</v>
       </c>
       <c r="L26" t="n">
-        <v>1131.054259567988</v>
+        <v>1131.054259567989</v>
       </c>
       <c r="M26" t="n">
         <v>1719.191899538645</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.932940143697</v>
+        <v>2293.932940143698</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.058310260591</v>
+        <v>2790.058310260592</v>
       </c>
       <c r="P26" t="n">
         <v>3196.205168803545</v>
@@ -6251,25 +6251,25 @@
         <v>3495.660337173375</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.363401382436</v>
+        <v>3424.363401382437</v>
       </c>
       <c r="T26" t="n">
-        <v>3305.945741005183</v>
+        <v>3305.945741005184</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.669519835803</v>
+        <v>3154.669519835805</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.255946383681</v>
+        <v>2921.255946383682</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.286716893219</v>
+        <v>2662.28671689322</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.822277066649</v>
+        <v>2383.82227706665</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.846122294423</v>
+        <v>2093.846122294424</v>
       </c>
     </row>
     <row r="27">
@@ -6306,13 +6306,13 @@
         <v>157.0540802785859</v>
       </c>
       <c r="K27" t="n">
-        <v>432.4983317400831</v>
+        <v>157.0540802785859</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1105961216846</v>
+        <v>584.6663446601874</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.250454385927</v>
+        <v>1141.806202924429</v>
       </c>
       <c r="N27" t="n">
         <v>1540.410726292375</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.8980071462524</v>
+        <v>434.8980071462526</v>
       </c>
       <c r="C28" t="n">
-        <v>368.8477382598692</v>
+        <v>368.8477382598693</v>
       </c>
       <c r="D28" t="n">
-        <v>319.3415457395683</v>
+        <v>319.3415457395685</v>
       </c>
       <c r="E28" t="n">
         <v>270.8982321528237</v>
@@ -6382,13 +6382,13 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4237188900809</v>
+        <v>129.4237188900808</v>
       </c>
       <c r="K28" t="n">
-        <v>292.2517393535782</v>
+        <v>292.2517393535779</v>
       </c>
       <c r="L28" t="n">
-        <v>529.8344531869593</v>
+        <v>529.8344531869594</v>
       </c>
       <c r="M28" t="n">
         <v>786.7317839334651</v>
@@ -6418,16 +6418,16 @@
         <v>1100.804201407476</v>
       </c>
       <c r="V28" t="n">
-        <v>943.634597617835</v>
+        <v>943.6345976178349</v>
       </c>
       <c r="W28" t="n">
-        <v>761.0438967871705</v>
+        <v>761.0438967871704</v>
       </c>
       <c r="X28" t="n">
-        <v>633.3571333344828</v>
+        <v>633.3571333344826</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.8876751786958</v>
+        <v>514.887675178696</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.368283428342</v>
+        <v>1803.36828342834</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.000225413085</v>
+        <v>1525.000225413084</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.741961292245</v>
+        <v>1255.741961292244</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5219420502887</v>
+        <v>964.5219420502873</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9364520123954</v>
+        <v>653.9364520123941</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9408469271548</v>
+        <v>341.9408469271535</v>
       </c>
       <c r="H29" t="n">
         <v>118.2430030078329</v>
       </c>
       <c r="I29" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346747</v>
       </c>
       <c r="J29" t="n">
         <v>288.5592683370141</v>
@@ -6467,46 +6467,46 @@
         <v>697.8616999273315</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.186699805911</v>
+        <v>1131.054259567987</v>
       </c>
       <c r="M29" t="n">
-        <v>1819.324339776568</v>
+        <v>1719.191899538644</v>
       </c>
       <c r="N29" t="n">
-        <v>2394.06538038162</v>
+        <v>2293.932940143696</v>
       </c>
       <c r="O29" t="n">
-        <v>2890.190750498515</v>
+        <v>2790.058310260591</v>
       </c>
       <c r="P29" t="n">
-        <v>3296.337609041468</v>
+        <v>3196.205168803544</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.579379771279</v>
+        <v>3449.579379771278</v>
       </c>
       <c r="R29" t="n">
-        <v>3495.660337173375</v>
+        <v>3495.660337173374</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.363401382436</v>
+        <v>3424.363401382435</v>
       </c>
       <c r="T29" t="n">
-        <v>3305.945741005185</v>
+        <v>3305.945741005182</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.669519835805</v>
+        <v>3154.669519835804</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.255946383682</v>
+        <v>2921.255946383681</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.28671689322</v>
+        <v>2662.286716893219</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.82227706665</v>
+        <v>2383.822277066649</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.846122294424</v>
+        <v>2093.846122294423</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>936.1343047002184</v>
+        <v>936.1343047002182</v>
       </c>
       <c r="C30" t="n">
-        <v>774.4306319411731</v>
+        <v>774.4306319411729</v>
       </c>
       <c r="D30" t="n">
-        <v>635.5919949313852</v>
+        <v>635.591994931385</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5639849882564</v>
+        <v>488.5639849882563</v>
       </c>
       <c r="F30" t="n">
-        <v>353.8701869381307</v>
+        <v>353.8701869381306</v>
       </c>
       <c r="G30" t="n">
-        <v>225.4320467921864</v>
+        <v>225.4320467921863</v>
       </c>
       <c r="H30" t="n">
         <v>128.2984540202789</v>
       </c>
       <c r="I30" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346747</v>
       </c>
       <c r="J30" t="n">
-        <v>69.9132067434675</v>
+        <v>157.0540802785859</v>
       </c>
       <c r="K30" t="n">
-        <v>164.4762384939176</v>
+        <v>432.4983317400831</v>
       </c>
       <c r="L30" t="n">
-        <v>592.0885028755191</v>
+        <v>860.1105961216847</v>
       </c>
       <c r="M30" t="n">
-        <v>1149.228361139761</v>
+        <v>955.1301307939991</v>
       </c>
       <c r="N30" t="n">
-        <v>1734.508956638136</v>
+        <v>1540.410726292374</v>
       </c>
       <c r="O30" t="n">
-        <v>2194.418126106571</v>
+        <v>2000.319895760809</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.85666272657</v>
+        <v>2356.758432380808</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.85666272657</v>
@@ -6567,16 +6567,16 @@
         <v>2509.100173489918</v>
       </c>
       <c r="S30" t="n">
-        <v>2361.693993008429</v>
+        <v>2361.693993008428</v>
       </c>
       <c r="T30" t="n">
         <v>2174.179243053706</v>
       </c>
       <c r="U30" t="n">
-        <v>1955.703553272462</v>
+        <v>1955.703553272461</v>
       </c>
       <c r="V30" t="n">
-        <v>1727.307930720796</v>
+        <v>1727.307930720795</v>
       </c>
       <c r="W30" t="n">
         <v>1485.992061954106</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.8980071462523</v>
+        <v>434.898007146252</v>
       </c>
       <c r="C31" t="n">
-        <v>368.8477382598691</v>
+        <v>368.8477382598687</v>
       </c>
       <c r="D31" t="n">
-        <v>319.3415457395682</v>
+        <v>319.3415457395679</v>
       </c>
       <c r="E31" t="n">
-        <v>270.8982321528235</v>
+        <v>270.8982321528232</v>
       </c>
       <c r="F31" t="n">
-        <v>221.983277830537</v>
+        <v>221.9832778305367</v>
       </c>
       <c r="G31" t="n">
-        <v>156.8726577786231</v>
+        <v>156.8726577786228</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2300087905334</v>
+        <v>103.2300087905332</v>
       </c>
       <c r="I31" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346747</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4237188900808</v>
+        <v>129.4237188900806</v>
       </c>
       <c r="K31" t="n">
-        <v>292.2517393535779</v>
+        <v>292.2517393535776</v>
       </c>
       <c r="L31" t="n">
-        <v>529.8344531869594</v>
+        <v>529.8344531869592</v>
       </c>
       <c r="M31" t="n">
-        <v>786.7317839334651</v>
+        <v>786.7317839334646</v>
       </c>
       <c r="N31" t="n">
         <v>1043.168683737098</v>
       </c>
       <c r="O31" t="n">
-        <v>1276.859796735944</v>
+        <v>1276.859796735943</v>
       </c>
       <c r="P31" t="n">
         <v>1470.188639231697</v>
       </c>
       <c r="Q31" t="n">
-        <v>1553.901066696969</v>
+        <v>1553.901066696968</v>
       </c>
       <c r="R31" t="n">
         <v>1518.8903908121</v>
@@ -6655,16 +6655,16 @@
         <v>1100.804201407475</v>
       </c>
       <c r="V31" t="n">
-        <v>943.6345976178344</v>
+        <v>943.6345976178339</v>
       </c>
       <c r="W31" t="n">
-        <v>761.04389678717</v>
+        <v>761.0438967871695</v>
       </c>
       <c r="X31" t="n">
-        <v>633.3571333344822</v>
+        <v>633.3571333344817</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.8876751786958</v>
+        <v>514.8876751786954</v>
       </c>
     </row>
     <row r="32">
@@ -6674,70 +6674,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1784.256470072131</v>
+        <v>1784.25647007213</v>
       </c>
       <c r="C32" t="n">
-        <v>1508.504274778814</v>
+        <v>1508.504274778813</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.861873379913</v>
+        <v>1241.861873379912</v>
       </c>
       <c r="E32" t="n">
-        <v>953.2577168598958</v>
+        <v>953.257716859895</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2880895439419</v>
+        <v>645.2880895439412</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9083471806405</v>
+        <v>335.90834718064</v>
       </c>
       <c r="H32" t="n">
-        <v>114.8263659832591</v>
+        <v>114.826365983259</v>
       </c>
       <c r="I32" t="n">
-        <v>69.11243244083299</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="J32" t="n">
         <v>290.3223010881524</v>
       </c>
       <c r="K32" t="n">
-        <v>702.1885397322424</v>
+        <v>702.1885397322425</v>
       </c>
       <c r="L32" t="n">
-        <v>1238.077346664595</v>
+        <v>1134.008796401859</v>
       </c>
       <c r="M32" t="n">
-        <v>1770.402699400792</v>
+        <v>1724.710243426289</v>
       </c>
       <c r="N32" t="n">
-        <v>2243.638996796882</v>
+        <v>2302.015091085114</v>
       </c>
       <c r="O32" t="n">
-        <v>2742.328173967549</v>
+        <v>2742.328173967547</v>
       </c>
       <c r="P32" t="n">
-        <v>3151.038839564275</v>
+        <v>3151.038839564274</v>
       </c>
       <c r="Q32" t="n">
-        <v>3406.976857585782</v>
+        <v>3406.97685758578</v>
       </c>
       <c r="R32" t="n">
-        <v>3455.62162204165</v>
+        <v>3455.621622041648</v>
       </c>
       <c r="S32" t="n">
-        <v>3386.940548972651</v>
+        <v>3386.940548972649</v>
       </c>
       <c r="T32" t="n">
-        <v>3271.138751317337</v>
+        <v>3271.138751317336</v>
       </c>
       <c r="U32" t="n">
-        <v>3122.478392869898</v>
+        <v>3122.478392869896</v>
       </c>
       <c r="V32" t="n">
-        <v>2891.680682139715</v>
+        <v>2891.680682139714</v>
       </c>
       <c r="W32" t="n">
-        <v>2635.327315371192</v>
+        <v>2635.327315371191</v>
       </c>
       <c r="X32" t="n">
         <v>2359.47873826656</v>
@@ -6768,28 +6768,28 @@
         <v>353.0694126354962</v>
       </c>
       <c r="G33" t="n">
-        <v>224.6312724895519</v>
+        <v>224.6312724895518</v>
       </c>
       <c r="H33" t="n">
         <v>127.4976797176444</v>
       </c>
       <c r="I33" t="n">
-        <v>69.11243244083299</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="J33" t="n">
-        <v>156.2533059759514</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="K33" t="n">
-        <v>431.6975574374486</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="L33" t="n">
-        <v>859.3098218190501</v>
+        <v>496.7246968224345</v>
       </c>
       <c r="M33" t="n">
-        <v>1416.449680083292</v>
+        <v>1053.864555086677</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.60995198974</v>
+        <v>1639.145150585052</v>
       </c>
       <c r="O33" t="n">
         <v>1999.519121458175</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.7861937900429</v>
+        <v>415.7861937900423</v>
       </c>
       <c r="C34" t="n">
-        <v>352.3517876255989</v>
+        <v>352.3517876255984</v>
       </c>
       <c r="D34" t="n">
-        <v>305.4614578272374</v>
+        <v>305.4614578272369</v>
       </c>
       <c r="E34" t="n">
-        <v>259.6340069624319</v>
+        <v>259.6340069624315</v>
       </c>
       <c r="F34" t="n">
-        <v>213.3349153620847</v>
+        <v>213.3349153620844</v>
       </c>
       <c r="G34" t="n">
-        <v>150.84015803211</v>
+        <v>150.8401580321097</v>
       </c>
       <c r="H34" t="n">
-        <v>99.81337176595964</v>
+        <v>99.81337176595952</v>
       </c>
       <c r="I34" t="n">
-        <v>69.11243244083299</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="J34" t="n">
         <v>131.186751641219</v>
       </c>
       <c r="K34" t="n">
-        <v>296.5785791584887</v>
+        <v>296.5785791584889</v>
       </c>
       <c r="L34" t="n">
-        <v>536.7251000456429</v>
+        <v>536.7251000456431</v>
       </c>
       <c r="M34" t="n">
-        <v>796.1862378459211</v>
+        <v>733.8219778647097</v>
       </c>
       <c r="N34" t="n">
-        <v>1055.186944703327</v>
+        <v>992.8226847221154</v>
       </c>
       <c r="O34" t="n">
-        <v>1291.441864755945</v>
+        <v>1229.077604774733</v>
       </c>
       <c r="P34" t="n">
-        <v>1487.334514305471</v>
+        <v>1424.97025432426</v>
       </c>
       <c r="Q34" t="n">
-        <v>1511.246488843306</v>
+        <v>1511.246488843304</v>
       </c>
       <c r="R34" t="n">
-        <v>1478.851675680377</v>
+        <v>1478.851675680375</v>
       </c>
       <c r="S34" t="n">
-        <v>1375.565761353852</v>
+        <v>1375.565761353851</v>
       </c>
       <c r="T34" t="n">
-        <v>1249.608472691596</v>
+        <v>1249.608472691595</v>
       </c>
       <c r="U34" t="n">
-        <v>1068.61307444157</v>
+        <v>1068.613074441569</v>
       </c>
       <c r="V34" t="n">
-        <v>914.0593333738681</v>
+        <v>914.059333373867</v>
       </c>
       <c r="W34" t="n">
-        <v>734.0844952651429</v>
+        <v>734.084495265142</v>
       </c>
       <c r="X34" t="n">
-        <v>609.0135945343943</v>
+        <v>609.0135945343935</v>
       </c>
       <c r="Y34" t="n">
-        <v>493.1599991005471</v>
+        <v>493.1599991005464</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.430804289738</v>
       </c>
       <c r="C35" t="n">
         <v>1207.752508172448</v>
       </c>
       <c r="D35" t="n">
-        <v>989.1840059495726</v>
+        <v>989.1840059495723</v>
       </c>
       <c r="E35" t="n">
-        <v>748.6537486055806</v>
+        <v>748.6537486055805</v>
       </c>
       <c r="F35" t="n">
-        <v>488.7580204656524</v>
+        <v>488.7580204656522</v>
       </c>
       <c r="G35" t="n">
-        <v>227.4521772783769</v>
+        <v>227.452177278377</v>
       </c>
       <c r="H35" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I35" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J35" t="n">
         <v>171.5854136416049</v>
@@ -6941,7 +6941,7 @@
         <v>479.3831020229593</v>
       </c>
       <c r="L35" t="n">
-        <v>911.2033586925762</v>
+        <v>911.2033586925761</v>
       </c>
       <c r="M35" t="n">
         <v>1397.83625545427</v>
@@ -6962,10 +6962,10 @@
         <v>2722.204762851053</v>
       </c>
       <c r="S35" t="n">
-        <v>2701.597588958079</v>
+        <v>2701.59758895808</v>
       </c>
       <c r="T35" t="n">
-        <v>2633.869690478791</v>
+        <v>2633.869690478792</v>
       </c>
       <c r="U35" t="n">
         <v>2533.283231207377</v>
@@ -6999,10 +6999,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E36" t="n">
-        <v>473.0948735018098</v>
+        <v>473.09487350181</v>
       </c>
       <c r="F36" t="n">
-        <v>338.4010754516842</v>
+        <v>338.4010754516843</v>
       </c>
       <c r="G36" t="n">
         <v>209.9629353057399</v>
@@ -7011,28 +7011,28 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I36" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J36" t="n">
         <v>141.5849687921395</v>
       </c>
       <c r="K36" t="n">
-        <v>417.0292202536367</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="L36" t="n">
-        <v>844.6414846352382</v>
+        <v>569.1972331737411</v>
       </c>
       <c r="M36" t="n">
-        <v>1401.78134289948</v>
+        <v>1126.337091437983</v>
       </c>
       <c r="N36" t="n">
-        <v>1719.039845151689</v>
+        <v>1711.617686936358</v>
       </c>
       <c r="O36" t="n">
-        <v>2178.949014620124</v>
+        <v>2171.526856404793</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.387551240124</v>
+        <v>2527.965393024792</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.387551240124</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.17834748951307</v>
+        <v>87.17834748951324</v>
       </c>
       <c r="C37" t="n">
-        <v>71.81784050109474</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="D37" t="n">
-        <v>71.81784050109474</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="E37" t="n">
-        <v>71.81784050109474</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="F37" t="n">
-        <v>71.81784050109474</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="G37" t="n">
-        <v>57.39698234714571</v>
+        <v>57.39698234714577</v>
       </c>
       <c r="H37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K37" t="n">
         <v>115.7673725115552</v>
@@ -7120,25 +7120,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S37" t="n">
-        <v>730.9685411943611</v>
+        <v>730.968541194361</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5572313349121</v>
+        <v>653.0851517081304</v>
       </c>
       <c r="U37" t="n">
-        <v>499.6357322609115</v>
+        <v>520.1636526341298</v>
       </c>
       <c r="V37" t="n">
-        <v>393.1558903692355</v>
+        <v>413.6838107424537</v>
       </c>
       <c r="W37" t="n">
-        <v>261.254951436536</v>
+        <v>281.7828718097542</v>
       </c>
       <c r="X37" t="n">
-        <v>184.2579498818131</v>
+        <v>204.7858702550312</v>
       </c>
       <c r="Y37" t="n">
-        <v>116.4782536239915</v>
+        <v>116.4782536239918</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1435.430804289738</v>
+        <v>1435.430804289739</v>
       </c>
       <c r="C38" t="n">
-        <v>1207.752508172447</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D38" t="n">
-        <v>989.1840059495719</v>
+        <v>989.1840059495727</v>
       </c>
       <c r="E38" t="n">
-        <v>748.6537486055802</v>
+        <v>748.6537486055809</v>
       </c>
       <c r="F38" t="n">
-        <v>488.758020465652</v>
+        <v>488.7580204656526</v>
       </c>
       <c r="G38" t="n">
         <v>227.4521772783769</v>
       </c>
       <c r="H38" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I38" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J38" t="n">
-        <v>171.5854136416038</v>
+        <v>171.5854136416049</v>
       </c>
       <c r="K38" t="n">
-        <v>479.3831020229583</v>
+        <v>479.3831020229593</v>
       </c>
       <c r="L38" t="n">
-        <v>911.2033586925751</v>
+        <v>911.2033586925766</v>
       </c>
       <c r="M38" t="n">
-        <v>1397.836255454269</v>
+        <v>1397.83625545427</v>
       </c>
       <c r="N38" t="n">
         <v>1871.072552850359</v>
       </c>
       <c r="O38" t="n">
-        <v>2265.69317975829</v>
+        <v>2265.693179758291</v>
       </c>
       <c r="P38" t="n">
-        <v>2570.335295092281</v>
+        <v>2570.335295092282</v>
       </c>
       <c r="Q38" t="n">
-        <v>2722.204762851052</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="R38" t="n">
-        <v>2722.204762851052</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="S38" t="n">
-        <v>2701.597588958078</v>
+        <v>2701.597588958079</v>
       </c>
       <c r="T38" t="n">
-        <v>2633.869690478791</v>
+        <v>2633.869690478792</v>
       </c>
       <c r="U38" t="n">
-        <v>2533.283231207377</v>
+        <v>2533.283231207378</v>
       </c>
       <c r="V38" t="n">
-        <v>2350.559419653219</v>
+        <v>2350.55941965322</v>
       </c>
       <c r="W38" t="n">
-        <v>2142.279952060721</v>
+        <v>2142.279952060723</v>
       </c>
       <c r="X38" t="n">
-        <v>1914.505274132116</v>
+        <v>1914.505274132117</v>
       </c>
       <c r="Y38" t="n">
-        <v>1675.218881257856</v>
+        <v>1675.218881257857</v>
       </c>
     </row>
     <row r="39">
@@ -7236,10 +7236,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E39" t="n">
-        <v>473.0948735018098</v>
+        <v>473.09487350181</v>
       </c>
       <c r="F39" t="n">
-        <v>338.4010754516842</v>
+        <v>338.4010754516843</v>
       </c>
       <c r="G39" t="n">
         <v>209.9629353057399</v>
@@ -7248,28 +7248,28 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I39" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J39" t="n">
-        <v>141.5849687921394</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="K39" t="n">
-        <v>149.0071270074708</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="L39" t="n">
-        <v>576.6193913890723</v>
+        <v>569.1972331737411</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.759249653314</v>
+        <v>1126.337091437983</v>
       </c>
       <c r="N39" t="n">
-        <v>1719.039845151689</v>
+        <v>1711.617686936358</v>
       </c>
       <c r="O39" t="n">
-        <v>2178.949014620124</v>
+        <v>1984.850784274363</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.387551240124</v>
+        <v>2341.289320894362</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.387551240124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.7062678627315</v>
+        <v>87.17834748951316</v>
       </c>
       <c r="C40" t="n">
-        <v>92.34576087431317</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="D40" t="n">
-        <v>92.34576087431317</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="E40" t="n">
-        <v>92.34576087431317</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="F40" t="n">
-        <v>92.34576087431317</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="G40" t="n">
-        <v>77.92490272036414</v>
+        <v>57.39698234714574</v>
       </c>
       <c r="H40" t="n">
-        <v>74.9720156302395</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I40" t="n">
-        <v>74.9720156302395</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J40" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K40" t="n">
         <v>115.7673725115552</v>
       </c>
       <c r="L40" t="n">
-        <v>251.8453431359738</v>
+        <v>251.8453431359739</v>
       </c>
       <c r="M40" t="n">
         <v>407.2379306735166</v>
@@ -7366,16 +7366,16 @@
         <v>520.1636526341299</v>
       </c>
       <c r="V40" t="n">
-        <v>413.6838107424539</v>
+        <v>413.6838107424538</v>
       </c>
       <c r="W40" t="n">
-        <v>281.7828718097544</v>
+        <v>281.7828718097543</v>
       </c>
       <c r="X40" t="n">
-        <v>204.7858702550315</v>
+        <v>204.7858702550314</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.00617399721</v>
+        <v>137.0061739972098</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.430804289738</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.752508172448</v>
+        <v>1207.752508172447</v>
       </c>
       <c r="D41" t="n">
-        <v>989.184005949573</v>
+        <v>989.1840059495721</v>
       </c>
       <c r="E41" t="n">
-        <v>748.6537486055814</v>
+        <v>748.6537486055806</v>
       </c>
       <c r="F41" t="n">
-        <v>488.7580204656533</v>
+        <v>488.7580204656524</v>
       </c>
       <c r="G41" t="n">
-        <v>227.4521772783767</v>
+        <v>227.4521772783769</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44409525701997</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J41" t="n">
-        <v>171.5854136416038</v>
+        <v>171.5854136416049</v>
       </c>
       <c r="K41" t="n">
-        <v>479.3831020229583</v>
+        <v>479.3831020229593</v>
       </c>
       <c r="L41" t="n">
-        <v>911.2033586925751</v>
+        <v>911.2033586925761</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.836255454269</v>
+        <v>1397.83625545427</v>
       </c>
       <c r="N41" t="n">
-        <v>1871.072552850359</v>
+        <v>1871.07255285036</v>
       </c>
       <c r="O41" t="n">
-        <v>2265.69317975829</v>
+        <v>2265.693179758292</v>
       </c>
       <c r="P41" t="n">
-        <v>2570.335295092281</v>
+        <v>2570.335295092282</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.204762851052</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.204762851052</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="S41" t="n">
-        <v>2701.597588958078</v>
+        <v>2701.59758895808</v>
       </c>
       <c r="T41" t="n">
-        <v>2633.869690478791</v>
+        <v>2633.869690478792</v>
       </c>
       <c r="U41" t="n">
-        <v>2533.283231207377</v>
+        <v>2533.283231207378</v>
       </c>
       <c r="V41" t="n">
         <v>2350.55941965322</v>
@@ -7454,7 +7454,7 @@
         <v>1914.505274132117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1675.218881257857</v>
+        <v>1675.218881257856</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7473,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E42" t="n">
-        <v>473.0948735018098</v>
+        <v>473.09487350181</v>
       </c>
       <c r="F42" t="n">
-        <v>338.4010754516842</v>
+        <v>338.4010754516843</v>
       </c>
       <c r="G42" t="n">
         <v>209.9629353057399</v>
@@ -7485,28 +7485,28 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J42" t="n">
-        <v>141.5849687921394</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K42" t="n">
-        <v>141.5849687921394</v>
+        <v>329.8883467185182</v>
       </c>
       <c r="L42" t="n">
-        <v>569.197233173741</v>
+        <v>576.6193913890723</v>
       </c>
       <c r="M42" t="n">
-        <v>1126.337091437983</v>
+        <v>1133.759249653314</v>
       </c>
       <c r="N42" t="n">
-        <v>1711.617686936358</v>
+        <v>1719.039845151689</v>
       </c>
       <c r="O42" t="n">
-        <v>2171.526856404793</v>
+        <v>2178.949014620124</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.289320894362</v>
+        <v>2535.387551240124</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.387551240124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.17834748951253</v>
+        <v>87.17834748951316</v>
       </c>
       <c r="C43" t="n">
-        <v>71.81784050109437</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="D43" t="n">
-        <v>71.81784050109437</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="E43" t="n">
-        <v>71.81784050109437</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="F43" t="n">
-        <v>71.81784050109437</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="G43" t="n">
-        <v>57.39698234714552</v>
+        <v>57.39698234714574</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J43" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K43" t="n">
         <v>115.7673725115552</v>
       </c>
       <c r="L43" t="n">
-        <v>251.8453431359738</v>
+        <v>251.8453431359739</v>
       </c>
       <c r="M43" t="n">
         <v>407.2379306735166</v>
@@ -7594,25 +7594,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S43" t="n">
-        <v>730.9685411943614</v>
+        <v>730.9685411943611</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5572313349105</v>
+        <v>632.5572313349123</v>
       </c>
       <c r="U43" t="n">
-        <v>499.6357322609101</v>
+        <v>499.6357322609117</v>
       </c>
       <c r="V43" t="n">
-        <v>393.1558903692343</v>
+        <v>393.1558903692356</v>
       </c>
       <c r="W43" t="n">
-        <v>261.2549514365349</v>
+        <v>261.2549514365361</v>
       </c>
       <c r="X43" t="n">
-        <v>184.2579498818122</v>
+        <v>184.2579498818132</v>
       </c>
       <c r="Y43" t="n">
-        <v>116.4782536239908</v>
+        <v>116.4782536239916</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7628,22 @@
         <v>1207.752508172447</v>
       </c>
       <c r="D44" t="n">
-        <v>989.1840059495717</v>
+        <v>989.1840059495721</v>
       </c>
       <c r="E44" t="n">
-        <v>748.6537486055801</v>
+        <v>748.6537486055806</v>
       </c>
       <c r="F44" t="n">
-        <v>488.758020465652</v>
+        <v>488.7580204656524</v>
       </c>
       <c r="G44" t="n">
-        <v>227.4521772783767</v>
+        <v>227.4521772783769</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J44" t="n">
         <v>171.5854136416049</v>
@@ -7661,37 +7661,37 @@
         <v>1871.072552850359</v>
       </c>
       <c r="O44" t="n">
-        <v>2265.69317975829</v>
+        <v>2265.693179758291</v>
       </c>
       <c r="P44" t="n">
-        <v>2570.335295092281</v>
+        <v>2570.335295092282</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.204762851052</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.204762851052</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="S44" t="n">
-        <v>2701.597588958078</v>
+        <v>2701.597588958079</v>
       </c>
       <c r="T44" t="n">
-        <v>2633.869690478791</v>
+        <v>2633.869690478792</v>
       </c>
       <c r="U44" t="n">
-        <v>2533.283231207377</v>
+        <v>2533.283231207378</v>
       </c>
       <c r="V44" t="n">
-        <v>2350.559419653219</v>
+        <v>2350.55941965322</v>
       </c>
       <c r="W44" t="n">
         <v>2142.279952060722</v>
       </c>
       <c r="X44" t="n">
-        <v>1914.505274132116</v>
+        <v>1914.505274132117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1675.218881257855</v>
+        <v>1675.218881257856</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E45" t="n">
-        <v>473.0948735018098</v>
+        <v>473.09487350181</v>
       </c>
       <c r="F45" t="n">
-        <v>338.4010754516842</v>
+        <v>338.4010754516843</v>
       </c>
       <c r="G45" t="n">
         <v>209.9629353057399</v>
@@ -7722,25 +7722,25 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44409525702104</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8883467185182</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="L45" t="n">
-        <v>738.9596976633101</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="M45" t="n">
-        <v>1296.099555927552</v>
+        <v>939.6610193075528</v>
       </c>
       <c r="N45" t="n">
-        <v>1881.380151425927</v>
+        <v>1524.941614805928</v>
       </c>
       <c r="O45" t="n">
-        <v>2341.289320894362</v>
+        <v>1984.850784274363</v>
       </c>
       <c r="P45" t="n">
         <v>2341.289320894362</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.17834748951253</v>
+        <v>87.17834748951316</v>
       </c>
       <c r="C46" t="n">
-        <v>71.81784050109437</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="D46" t="n">
-        <v>71.81784050109437</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="E46" t="n">
-        <v>71.81784050109437</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="F46" t="n">
-        <v>71.81784050109437</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="G46" t="n">
-        <v>57.39698234714552</v>
+        <v>57.39698234714574</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J46" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K46" t="n">
         <v>115.7673725115552</v>
       </c>
       <c r="L46" t="n">
-        <v>251.8453431359738</v>
+        <v>251.8453431359739</v>
       </c>
       <c r="M46" t="n">
         <v>407.2379306735166</v>
@@ -7831,25 +7831,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S46" t="n">
-        <v>730.9685411943614</v>
+        <v>730.9685411943611</v>
       </c>
       <c r="T46" t="n">
-        <v>632.5572313349105</v>
+        <v>653.0851517081305</v>
       </c>
       <c r="U46" t="n">
-        <v>499.6357322609101</v>
+        <v>520.1636526341299</v>
       </c>
       <c r="V46" t="n">
-        <v>393.1558903692343</v>
+        <v>413.6838107424538</v>
       </c>
       <c r="W46" t="n">
-        <v>261.2549514365349</v>
+        <v>281.7828718097543</v>
       </c>
       <c r="X46" t="n">
-        <v>184.2579498818122</v>
+        <v>184.2579498818132</v>
       </c>
       <c r="Y46" t="n">
-        <v>116.4782536239908</v>
+        <v>116.4782536239916</v>
       </c>
     </row>
   </sheetData>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -8465,10 +8465,10 @@
         <v>196.0033614891845</v>
       </c>
       <c r="O8" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
         <v>190.6330518059216</v>
@@ -8529,13 +8529,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>113.0652504495981</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>122.5851123540791</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>125.0891498785942</v>
@@ -8547,10 +8547,10 @@
         <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
-        <v>118.8638848070747</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8614,19 +8614,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>121.5092506068868</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>184.5248483578809</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>229.6340664704748</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.6059850712386</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,16 +8769,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>416.8548938543647</v>
       </c>
       <c r="N12" t="n">
-        <v>156.3568809982095</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8936,10 +8936,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>379.8467475831276</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>306.3359814891164</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>422.7082801365682</v>
+        <v>586.6883874842844</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>53.96267335313116</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>232.6847821900622</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>229.6340664704748</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9252,13 +9252,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>620.9115976329905</v>
       </c>
       <c r="O18" t="n">
-        <v>405.2717352901242</v>
+        <v>47.46629842496576</v>
       </c>
       <c r="P18" t="n">
-        <v>53.96267335313117</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>184.5248483578813</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>232.6847821900614</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.6059850712386</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,19 +9477,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106103</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>570.5599574100243</v>
       </c>
       <c r="N21" t="n">
-        <v>244.3779653771156</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.5010356988638</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>395.6633393882294</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.6297977302559</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>352.4156995292804</v>
+        <v>156.3568809982079</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>156.3568809982084</v>
+        <v>434.5833976259834</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>161.0965053779209</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>138.6283772265883</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.897261563624</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>156.3568809982082</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>411.4804104180195</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406822</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>352.4156995292804</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.04165552553152</v>
+        <v>84.53878503596725</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236948</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>73.07542099901308</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10914,13 +10914,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>323.4593260391119</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>75.897261563624</v>
       </c>
       <c r="K42" t="n">
-        <v>65.57829148857732</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>299.3841461560652</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11154,10 +11154,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>225.4399102112818</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>77.04165552553152</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355786</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>308.9481826513767</v>
       </c>
       <c r="L45" t="n">
-        <v>463.36425350378</v>
+        <v>50.16086871106103</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11391,7 +11391,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>53.96267335313117</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.2813298033895</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.4531458913667</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>235.4343762339799</v>
+        <v>219.6772520840891</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.2069945273324</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>163.7369697115373</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3530479494103</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6533061821569</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>54.57360440570312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.93239120472968</v>
+        <v>61.93239120472964</v>
       </c>
       <c r="F13" t="n">
-        <v>62.39931553291599</v>
+        <v>30.10330145808576</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>78.43302460524717</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>67.07973325206106</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.95714478044761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.63407987987213</v>
+        <v>48.6340798798721</v>
       </c>
       <c r="S13" t="n">
-        <v>118.8162700318315</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>41.3576185310955</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5465712312742</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>265.2216170965327</v>
       </c>
       <c r="E14" t="n">
-        <v>302.2813298033895</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>76.34352428556286</v>
+        <v>321.4531458913667</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.8491597882405</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>235.4343762339799</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7369697115373</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0499039783556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.93239120472965</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.39931553291596</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>78.43302460524718</v>
       </c>
       <c r="H16" t="n">
-        <v>67.07973325206106</v>
+        <v>67.07973325206108</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.95714478044762</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>194.7383045762102</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>71.32163735217316</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.33806580504202</v>
       </c>
     </row>
     <row r="17">
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959424.4078176742</v>
+        <v>959424.4078176746</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959424.4078176743</v>
+        <v>959424.4078176742</v>
       </c>
     </row>
     <row r="7">
@@ -26320,10 +26320,10 @@
         <v>402921.8404940122</v>
       </c>
       <c r="E2" t="n">
-        <v>350957.2645365386</v>
+        <v>350957.2645365401</v>
       </c>
       <c r="F2" t="n">
-        <v>350957.2645365397</v>
+        <v>350957.2645365394</v>
       </c>
       <c r="G2" t="n">
         <v>403002.6317594452</v>
@@ -26335,13 +26335,13 @@
         <v>403002.6317594453</v>
       </c>
       <c r="J2" t="n">
+        <v>403002.6317594457</v>
+      </c>
+      <c r="K2" t="n">
         <v>403002.6317594458</v>
       </c>
-      <c r="K2" t="n">
-        <v>403002.6317594459</v>
-      </c>
       <c r="L2" t="n">
-        <v>403002.6317594454</v>
+        <v>403002.6317594452</v>
       </c>
       <c r="M2" t="n">
         <v>403002.6317594452</v>
@@ -26350,10 +26350,10 @@
         <v>403002.6317594452</v>
       </c>
       <c r="O2" t="n">
-        <v>403002.6317594451</v>
+        <v>403002.6317594455</v>
       </c>
       <c r="P2" t="n">
-        <v>403002.6317594451</v>
+        <v>403002.6317594452</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>364193.0327823791</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61893.61656883114</v>
+        <v>61893.61656883117</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83192.20727529822</v>
+        <v>83192.20727529826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63965.37984460704</v>
+        <v>63965.37984460713</v>
       </c>
       <c r="M3" t="n">
         <v>147607.1236882955</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>20130.41834750264</v>
+        <v>20130.41834750248</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,10 +26454,10 @@
         <v>285925.0507832417</v>
       </c>
       <c r="O4" t="n">
-        <v>285925.0507832418</v>
+        <v>285925.0507832417</v>
       </c>
       <c r="P4" t="n">
-        <v>285925.0507832419</v>
+        <v>285925.0507832417</v>
       </c>
     </row>
     <row r="5">
@@ -26494,16 +26494,16 @@
         <v>64667.02949573724</v>
       </c>
       <c r="K5" t="n">
-        <v>64667.02949573724</v>
+        <v>64667.02949573722</v>
       </c>
       <c r="L5" t="n">
-        <v>64276.15485927401</v>
+        <v>64276.154859274</v>
       </c>
       <c r="M5" t="n">
         <v>57129.32798310796</v>
       </c>
       <c r="N5" t="n">
-        <v>57129.32798310794</v>
+        <v>57129.32798310796</v>
       </c>
       <c r="O5" t="n">
         <v>57129.32798310796</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24075.27685178958</v>
+        <v>-24079.64542425677</v>
       </c>
       <c r="C6" t="n">
-        <v>-24075.2768517897</v>
+        <v>-24079.64542425689</v>
       </c>
       <c r="D6" t="n">
-        <v>-26518.35216158025</v>
+        <v>-26518.7368818919</v>
       </c>
       <c r="E6" t="n">
-        <v>-295115.0507773618</v>
+        <v>-295362.8858593742</v>
       </c>
       <c r="F6" t="n">
-        <v>69077.98200501825</v>
+        <v>68830.14692300415</v>
       </c>
       <c r="G6" t="n">
-        <v>-3656.88658950699</v>
+        <v>-3656.886589507048</v>
       </c>
       <c r="H6" t="n">
-        <v>58236.72997932415</v>
+        <v>58236.7299793241</v>
       </c>
       <c r="I6" t="n">
         <v>58236.72997932421</v>
       </c>
       <c r="J6" t="n">
-        <v>-31799.79341174099</v>
+        <v>-31799.79341174111</v>
       </c>
       <c r="K6" t="n">
-        <v>51392.41386355732</v>
+        <v>51392.41386355728</v>
       </c>
       <c r="L6" t="n">
-        <v>-12128.4784669221</v>
+        <v>-12128.47846692243</v>
       </c>
       <c r="M6" t="n">
-        <v>-87658.87069519992</v>
+        <v>-87658.87069519988</v>
       </c>
       <c r="N6" t="n">
-        <v>59948.25299309555</v>
+        <v>59948.25299309553</v>
       </c>
       <c r="O6" t="n">
-        <v>39817.83464559265</v>
+        <v>39817.83464559328</v>
       </c>
       <c r="P6" t="n">
-        <v>59948.25299309524</v>
+        <v>59948.25299309547</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F2" t="n">
         <v>88.55653289156469</v>
@@ -26713,7 +26713,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="L2" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="M2" t="n">
         <v>152.7129079244023</v>
@@ -26722,10 +26722,10 @@
         <v>152.7129079244023</v>
       </c>
       <c r="O2" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="P2" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="3">
@@ -26799,37 +26799,37 @@
         <v>632.8937387712</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8937387712001</v>
+        <v>632.8937387712</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8937387712001</v>
+        <v>632.8937387712</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8937387712001</v>
+        <v>632.8937387712</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8937387712001</v>
+        <v>632.8937387712</v>
       </c>
       <c r="J4" t="n">
-        <v>873.9150842933436</v>
+        <v>873.9150842933437</v>
       </c>
       <c r="K4" t="n">
-        <v>873.9150842933437</v>
+        <v>873.9150842933434</v>
       </c>
       <c r="L4" t="n">
-        <v>863.9054055104124</v>
+        <v>863.905405510412</v>
       </c>
       <c r="M4" t="n">
-        <v>680.5511907127632</v>
+        <v>680.5511907127633</v>
       </c>
       <c r="N4" t="n">
-        <v>680.5511907127629</v>
+        <v>680.5511907127633</v>
       </c>
       <c r="O4" t="n">
-        <v>680.5511907127629</v>
+        <v>680.5511907127633</v>
       </c>
       <c r="P4" t="n">
-        <v>680.5511907127629</v>
+        <v>680.5511907127633</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>77.36702071103896</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.16302293437811</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>79.95672480575891</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.59316018426527</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>77.36702071103893</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>25.16302293437813</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.9567248057588</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47.59316018426543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>25.1630229343783</v>
+        <v>25.16302293437811</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0213455221435</v>
+        <v>241.0213455221437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.5298451906194</v>
+        <v>439.5298451906199</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>77.36702071103893</v>
+        <v>77.36702071103896</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437813</v>
+        <v>25.16302293437811</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>380.8281839120228</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>368.2001602907902</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27944,13 +27944,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4315361940169</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36990114399772</v>
+        <v>49.17674743307231</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>142.4549670453812</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -27989,13 +27989,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>216.101987543218</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28011,25 +28011,25 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>159.1032847709306</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>141.6723990242884</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7692399855875</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>132.7513351704169</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>138.0168847888342</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>201.5629861874179</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="C11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="D11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="E11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="G11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="H11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="I11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="T11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="U11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="V11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="W11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="X11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="C13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="D13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="E13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="G13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="H13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="I13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="J13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="K13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="L13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="M13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="N13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="O13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="P13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="R13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="S13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="T13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="U13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="V13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="W13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="X13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.55653289156466</v>
+        <v>88.5565328915647</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S14" t="n">
         <v>88.55653289156469</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S17" t="n">
         <v>165.9235536026036</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.97203610473861</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>137.1906127714368</v>
@@ -28773,7 +28773,7 @@
         <v>165.9235536026036</v>
       </c>
       <c r="T19" t="n">
-        <v>10.57109743188119</v>
+        <v>28.54313353661956</v>
       </c>
       <c r="U19" t="n">
         <v>165.9235536026036</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S20" t="n">
         <v>165.9235536026036</v>
@@ -28974,7 +28974,7 @@
         <v>165.9235536026036</v>
       </c>
       <c r="H22" t="n">
-        <v>18.25584607764199</v>
+        <v>155.6362661436258</v>
       </c>
       <c r="I22" t="n">
         <v>135.5136776720123</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R22" t="n">
         <v>137.1906127714368</v>
@@ -29025,7 +29025,7 @@
         <v>165.9235536026036</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9235536026036</v>
+        <v>10.57109743188104</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S23" t="n">
         <v>165.9235536026036</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R25" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9235536026036</v>
+        <v>10.57109743188099</v>
       </c>
       <c r="T25" t="n">
         <v>165.9235536026036</v>
@@ -29253,7 +29253,7 @@
         <v>165.9235536026036</v>
       </c>
       <c r="V25" t="n">
-        <v>28.54313353661982</v>
+        <v>165.9235536026036</v>
       </c>
       <c r="W25" t="n">
         <v>165.9235536026036</v>
@@ -29296,10 +29296,10 @@
         <v>102.5300436454171</v>
       </c>
       <c r="J26" t="n">
-        <v>1.386164617211904</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="K26" t="n">
-        <v>102.5300436454171</v>
+        <v>1.386164617212387</v>
       </c>
       <c r="L26" t="n">
         <v>102.5300436454171</v>
@@ -29539,7 +29539,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="L29" t="n">
-        <v>102.5300436454171</v>
+        <v>1.386164617210966</v>
       </c>
       <c r="M29" t="n">
         <v>102.5300436454171</v>
@@ -29554,7 +29554,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.386164617212359</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="R29" t="n">
         <v>102.5300436454171</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="C32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="D32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="E32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="F32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="G32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="H32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="I32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="J32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="K32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1197477401369</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>46.15399593384194</v>
+        <v>105.119747740137</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>105.119747740137</v>
       </c>
       <c r="O32" t="n">
-        <v>105.1197477401369</v>
+        <v>46.15399593384012</v>
       </c>
       <c r="P32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="R32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="S32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="T32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="U32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="V32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="W32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="X32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="C34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="D34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="E34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="F34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="G34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="H34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="I34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="J34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="K34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="L34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="M34" t="n">
-        <v>105.1197477401369</v>
+        <v>42.12554573891293</v>
       </c>
       <c r="N34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="O34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="P34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.12554573891563</v>
+        <v>105.119747740137</v>
       </c>
       <c r="R34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="S34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="T34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="U34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="V34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="W34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="X34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.119747740137</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S35" t="n">
         <v>152.7129079244023</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R37" t="n">
         <v>137.1906127714368</v>
@@ -30195,7 +30195,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="T37" t="n">
-        <v>132.3902667549161</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U37" t="n">
         <v>152.7129079244023</v>
@@ -30210,7 +30210,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549166</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S38" t="n">
         <v>152.7129079244023</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549163</v>
       </c>
       <c r="C40" t="n">
         <v>152.7129079244023</v>
@@ -30402,7 +30402,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J40" t="n">
-        <v>22.09577404500823</v>
+        <v>42.4184152144945</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R40" t="n">
         <v>137.1906127714368</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="E41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="F41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="G41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I41" t="n">
-        <v>150.3765419471377</v>
+        <v>150.3765419471388</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I43" t="n">
         <v>135.5136776720123</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R43" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T43" t="n">
-        <v>132.3902667549143</v>
+        <v>132.3902667549163</v>
       </c>
       <c r="U43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="E44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="F44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="G44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I44" t="n">
         <v>150.3765419471388</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I46" t="n">
         <v>135.5136776720123</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R46" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T46" t="n">
-        <v>132.3902667549143</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X46" t="n">
-        <v>152.7129079244025</v>
+        <v>132.3902667549163</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.7129079244025</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H11" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I11" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J11" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K11" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L11" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M11" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N11" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O11" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P11" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R11" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S11" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T11" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H12" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I12" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J12" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K12" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L12" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M12" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N12" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O12" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P12" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R12" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S12" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T12" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U12" t="n">
         <v>0.01891159424101205</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H13" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I13" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J13" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K13" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L13" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M13" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N13" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O13" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P13" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q13" t="n">
         <v>20.17993182810925</v>
@@ -31944,13 +31944,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S13" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T13" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H14" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I14" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J14" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K14" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L14" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M14" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N14" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O14" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P14" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R14" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S14" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T14" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H15" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I15" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J15" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K15" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L15" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M15" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N15" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O15" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P15" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R15" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S15" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T15" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U15" t="n">
         <v>0.01891159424101205</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H16" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I16" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J16" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K16" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L16" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M16" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N16" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O16" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P16" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q16" t="n">
         <v>20.17993182810925</v>
@@ -32181,13 +32181,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S16" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T16" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H17" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I17" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J17" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K17" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L17" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M17" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N17" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O17" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P17" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R17" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S17" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T17" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H18" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I18" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J18" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K18" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L18" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M18" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N18" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O18" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P18" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R18" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S18" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T18" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U18" t="n">
         <v>0.01891159424101205</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H19" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I19" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J19" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K19" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L19" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M19" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N19" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O19" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P19" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q19" t="n">
         <v>20.17993182810925</v>
@@ -32418,13 +32418,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S19" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T19" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H20" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I20" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J20" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K20" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L20" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M20" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N20" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O20" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P20" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R20" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S20" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T20" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H21" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I21" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J21" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K21" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L21" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M21" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N21" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O21" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P21" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R21" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S21" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T21" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U21" t="n">
         <v>0.01891159424101205</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H22" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I22" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J22" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K22" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L22" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M22" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N22" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O22" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P22" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q22" t="n">
         <v>20.17993182810925</v>
@@ -32655,13 +32655,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S22" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T22" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H23" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I23" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J23" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K23" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L23" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M23" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N23" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O23" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P23" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R23" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S23" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T23" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H24" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I24" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J24" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K24" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L24" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M24" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N24" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O24" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P24" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R24" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S24" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T24" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U24" t="n">
         <v>0.01891159424101205</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H25" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I25" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J25" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K25" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L25" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M25" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N25" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O25" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P25" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q25" t="n">
         <v>20.17993182810925</v>
@@ -32892,13 +32892,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S25" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T25" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H26" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I26" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J26" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K26" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L26" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M26" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N26" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O26" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P26" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R26" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S26" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T26" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H27" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I27" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J27" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K27" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L27" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M27" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N27" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O27" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P27" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R27" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S27" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T27" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U27" t="n">
         <v>0.01891159424101205</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H28" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I28" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J28" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K28" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L28" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M28" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N28" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O28" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P28" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q28" t="n">
         <v>20.17993182810925</v>
@@ -33129,13 +33129,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S28" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T28" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H29" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I29" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J29" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K29" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L29" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M29" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N29" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O29" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P29" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R29" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S29" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T29" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H30" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I30" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J30" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K30" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L30" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M30" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N30" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O30" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P30" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R30" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S30" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T30" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U30" t="n">
         <v>0.01891159424101205</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H31" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I31" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J31" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K31" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L31" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M31" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N31" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O31" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P31" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q31" t="n">
         <v>20.17993182810925</v>
@@ -33366,13 +33366,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S31" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T31" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H32" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I32" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J32" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K32" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L32" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M32" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N32" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O32" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P32" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R32" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S32" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T32" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H33" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I33" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J33" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K33" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L33" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M33" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N33" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O33" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P33" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R33" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S33" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T33" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U33" t="n">
         <v>0.01891159424101205</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H34" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I34" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J34" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K34" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L34" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M34" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N34" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O34" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P34" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q34" t="n">
         <v>20.17993182810925</v>
@@ -33603,13 +33603,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S34" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T34" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H35" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I35" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J35" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K35" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L35" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M35" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N35" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O35" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P35" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R35" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S35" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T35" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H36" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I36" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J36" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K36" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L36" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M36" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N36" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O36" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P36" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R36" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S36" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T36" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U36" t="n">
         <v>0.01891159424101205</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H37" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I37" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J37" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K37" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L37" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M37" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N37" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O37" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P37" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q37" t="n">
         <v>20.17993182810925</v>
@@ -33840,13 +33840,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S37" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T37" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H38" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I38" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J38" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K38" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L38" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M38" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N38" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O38" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P38" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R38" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S38" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T38" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H39" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I39" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J39" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K39" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L39" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M39" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N39" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O39" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P39" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R39" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S39" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T39" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U39" t="n">
         <v>0.01891159424101205</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H40" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I40" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J40" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K40" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L40" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M40" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N40" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O40" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P40" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q40" t="n">
         <v>20.17993182810925</v>
@@ -34077,13 +34077,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S40" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T40" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H41" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I41" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J41" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K41" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L41" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M41" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N41" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O41" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P41" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R41" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S41" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T41" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H42" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I42" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J42" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K42" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L42" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M42" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N42" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O42" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P42" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R42" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S42" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T42" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U42" t="n">
         <v>0.01891159424101205</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H43" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I43" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J43" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K43" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L43" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M43" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N43" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O43" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P43" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q43" t="n">
         <v>20.17993182810925</v>
@@ -34314,13 +34314,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S43" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T43" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H44" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I44" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J44" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K44" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L44" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M44" t="n">
-        <v>94.33710152384405</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N44" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O44" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P44" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R44" t="n">
         <v>33.74828161196626</v>
       </c>
       <c r="S44" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T44" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H45" t="n">
         <v>2.776222034580568</v>
       </c>
       <c r="I45" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J45" t="n">
-        <v>27.15831010304269</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K45" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L45" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M45" t="n">
-        <v>72.83485328688435</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N45" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O45" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P45" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R45" t="n">
         <v>17.84750187171777</v>
       </c>
       <c r="S45" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T45" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U45" t="n">
         <v>0.01891159424101205</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H46" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I46" t="n">
-        <v>7.247336281335946</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J46" t="n">
         <v>17.0382509854745</v>
       </c>
       <c r="K46" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L46" t="n">
-        <v>35.82918305470618</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M46" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N46" t="n">
         <v>36.87860085360582</v>
       </c>
       <c r="O46" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P46" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q46" t="n">
         <v>20.17993182810925</v>
@@ -34551,13 +34551,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S46" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T46" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9.605247316954339</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="O8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>10.00967878293136</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>9.605247316954339</v>
@@ -35267,10 +35267,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
-        <v>9.605247316954333</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.02381265901711</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K11" t="n">
         <v>310.9067559407621</v>
@@ -35425,10 +35425,10 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P11" t="n">
-        <v>307.7193084181723</v>
+        <v>119.0150542657198</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>88.02108437890749</v>
       </c>
       <c r="K12" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>431.9315801834359</v>
       </c>
       <c r="M12" t="n">
-        <v>562.7675336002444</v>
+        <v>374.2058445796092</v>
       </c>
       <c r="N12" t="n">
-        <v>124.4043150570194</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O12" t="n">
         <v>464.5547166347826</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.13811767707016</v>
+        <v>46.1381176770702</v>
       </c>
       <c r="K13" t="n">
-        <v>150.4992371890739</v>
+        <v>150.499237189074</v>
       </c>
       <c r="L13" t="n">
         <v>226.0090284717855</v>
       </c>
       <c r="M13" t="n">
-        <v>245.5187425254462</v>
+        <v>245.5187425254463</v>
       </c>
       <c r="N13" t="n">
-        <v>245.0536607649688</v>
+        <v>245.0536607649689</v>
       </c>
       <c r="O13" t="n">
-        <v>222.0781185379104</v>
+        <v>222.0781185379105</v>
       </c>
       <c r="P13" t="n">
         <v>181.3081483327676</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.58449678682605</v>
+        <v>70.58449678682609</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>491.5483805673672</v>
       </c>
       <c r="N14" t="n">
-        <v>289.3122078638004</v>
+        <v>478.0164620162523</v>
       </c>
       <c r="O14" t="n">
-        <v>398.6066938463955</v>
+        <v>209.902439693943</v>
       </c>
       <c r="P14" t="n">
         <v>307.7193084181723</v>
@@ -35732,7 +35732,7 @@
         <v>431.9315801834359</v>
       </c>
       <c r="M15" t="n">
-        <v>380.0592308618126</v>
+        <v>544.0393382095289</v>
       </c>
       <c r="N15" t="n">
         <v>591.1925207054294</v>
@@ -35741,10 +35741,10 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P15" t="n">
-        <v>360.0389258787872</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>118.3245640248321</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2025017883102</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L17" t="n">
         <v>436.1820774440574</v>
@@ -35899,7 +35899,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P17" t="n">
-        <v>307.7193084181723</v>
+        <v>119.0150542657198</v>
       </c>
       <c r="Q17" t="n">
         <v>153.4035027866375</v>
@@ -35972,13 +35972,13 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N18" t="n">
-        <v>591.1925207054294</v>
+        <v>588.9590316918004</v>
       </c>
       <c r="O18" t="n">
-        <v>357.8054368651584</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q18" t="n">
         <v>196.0588185310723</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>83.02381265901755</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K20" t="n">
-        <v>310.9067559407621</v>
+        <v>122.2025017883093</v>
       </c>
       <c r="L20" t="n">
         <v>436.1820774440574</v>
@@ -36139,7 +36139,7 @@
         <v>307.7193084181723</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K21" t="n">
         <v>278.2265166277749</v>
       </c>
       <c r="L21" t="n">
-        <v>431.9315801834359</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>562.7675336002444</v>
+        <v>527.9109081352688</v>
       </c>
       <c r="N21" t="n">
-        <v>212.4253994359254</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O21" t="n">
         <v>464.5547166347826</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K23" t="n">
         <v>310.9067559407621</v>
@@ -36364,7 +36364,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M23" t="n">
-        <v>491.5483805673672</v>
+        <v>302.8441264149144</v>
       </c>
       <c r="N23" t="n">
         <v>478.0164620162523</v>
@@ -36376,7 +36376,7 @@
         <v>307.7193084181723</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.02381265901737</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N24" t="n">
-        <v>320.4631335880903</v>
+        <v>124.4043150570178</v>
       </c>
       <c r="O24" t="n">
         <v>464.5547166347826</v>
@@ -36455,7 +36455,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>119.710728642044</v>
+        <v>220.8546076702492</v>
       </c>
       <c r="K26" t="n">
-        <v>413.4367995861791</v>
+        <v>312.2929205579745</v>
       </c>
       <c r="L26" t="n">
         <v>538.7121210894744</v>
@@ -36604,10 +36604,10 @@
         <v>594.0784242127843</v>
       </c>
       <c r="N26" t="n">
-        <v>580.5465056616694</v>
+        <v>580.5465056616692</v>
       </c>
       <c r="O26" t="n">
-        <v>501.1367374918126</v>
+        <v>501.1367374918125</v>
       </c>
       <c r="P26" t="n">
         <v>410.2493520635894</v>
@@ -36616,7 +36616,7 @@
         <v>255.9335464320546</v>
       </c>
       <c r="R26" t="n">
-        <v>46.54642161827817</v>
+        <v>46.54642161827813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>88.02108437890749</v>
       </c>
       <c r="K27" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>431.9315801834359</v>
@@ -36683,7 +36683,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N27" t="n">
-        <v>124.4043150570183</v>
+        <v>402.6308316847933</v>
       </c>
       <c r="O27" t="n">
         <v>464.5547166347826</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.11162843092259</v>
+        <v>60.11162843092255</v>
       </c>
       <c r="K28" t="n">
-        <v>164.4727479429264</v>
+        <v>164.4727479429263</v>
       </c>
       <c r="L28" t="n">
         <v>239.9825392256379</v>
       </c>
       <c r="M28" t="n">
-        <v>259.4922532792987</v>
+        <v>259.4922532792986</v>
       </c>
       <c r="N28" t="n">
-        <v>259.0271715188213</v>
+        <v>259.0271715188212</v>
       </c>
       <c r="O28" t="n">
-        <v>236.0516292917629</v>
+        <v>236.0516292917628</v>
       </c>
       <c r="P28" t="n">
         <v>195.28165908662</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.55800754067849</v>
+        <v>84.55800754067845</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>220.8546076702492</v>
       </c>
       <c r="K29" t="n">
-        <v>413.4367995861791</v>
+        <v>413.4367995861792</v>
       </c>
       <c r="L29" t="n">
-        <v>538.7121210894744</v>
+        <v>437.5682420612683</v>
       </c>
       <c r="M29" t="n">
-        <v>594.0784242127843</v>
+        <v>594.0784242127844</v>
       </c>
       <c r="N29" t="n">
         <v>580.5465056616692</v>
       </c>
       <c r="O29" t="n">
-        <v>501.1367374918125</v>
+        <v>501.1367374918126</v>
       </c>
       <c r="P29" t="n">
         <v>410.2493520635894</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.7896674038499</v>
+        <v>255.9335464320546</v>
       </c>
       <c r="R29" t="n">
-        <v>46.54642161827812</v>
+        <v>46.54642161827815</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K30" t="n">
-        <v>95.51821388934354</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L30" t="n">
         <v>431.9315801834359</v>
       </c>
       <c r="M30" t="n">
-        <v>562.7675336002444</v>
+        <v>95.97932795183274</v>
       </c>
       <c r="N30" t="n">
         <v>591.1925207054294</v>
@@ -36929,7 +36929,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.11162843092255</v>
+        <v>60.11162843092256</v>
       </c>
       <c r="K31" t="n">
         <v>164.4727479429263</v>
@@ -36996,19 +36996,19 @@
         <v>239.9825392256379</v>
       </c>
       <c r="M31" t="n">
-        <v>259.4922532792986</v>
+        <v>259.4922532792987</v>
       </c>
       <c r="N31" t="n">
         <v>259.0271715188212</v>
       </c>
       <c r="O31" t="n">
-        <v>236.0516292917628</v>
+        <v>236.0516292917629</v>
       </c>
       <c r="P31" t="n">
         <v>195.28165908662</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.55800754067845</v>
+        <v>84.55800754067846</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.4443117649691</v>
+        <v>223.4443117649692</v>
       </c>
       <c r="K32" t="n">
-        <v>416.026503680899</v>
+        <v>416.0265036808991</v>
       </c>
       <c r="L32" t="n">
-        <v>541.3018251841943</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M32" t="n">
-        <v>537.7023765012092</v>
+        <v>596.6681283075043</v>
       </c>
       <c r="N32" t="n">
-        <v>478.0164620162523</v>
+        <v>583.1362097563892</v>
       </c>
       <c r="O32" t="n">
-        <v>503.7264415865324</v>
+        <v>444.7606897802356</v>
       </c>
       <c r="P32" t="n">
-        <v>412.8390561583092</v>
+        <v>412.8390561583094</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.5232505267745</v>
+        <v>258.5232505267746</v>
       </c>
       <c r="R32" t="n">
-        <v>49.13612571299799</v>
+        <v>49.13612571299809</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>431.9315801834359</v>
@@ -37157,10 +37157,10 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N33" t="n">
-        <v>124.404315057018</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O33" t="n">
-        <v>464.5547166347826</v>
+        <v>364.0141119930537</v>
       </c>
       <c r="P33" t="n">
         <v>360.0389258787872</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.70133252564241</v>
+        <v>62.70133252564251</v>
       </c>
       <c r="K34" t="n">
-        <v>167.0624520376462</v>
+        <v>167.0624520376463</v>
       </c>
       <c r="L34" t="n">
         <v>242.5722433203578</v>
       </c>
       <c r="M34" t="n">
-        <v>262.0819573740185</v>
+        <v>199.0877553727945</v>
       </c>
       <c r="N34" t="n">
-        <v>261.6168756135411</v>
+        <v>261.6168756135412</v>
       </c>
       <c r="O34" t="n">
-        <v>238.6413333864827</v>
+        <v>238.6413333864828</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8713631813398</v>
+        <v>197.8713631813399</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.15350963417702</v>
+        <v>87.14771163539841</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M35" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673671</v>
       </c>
       <c r="N35" t="n">
         <v>478.0164620162523</v>
@@ -37385,7 +37385,7 @@
         <v>88.02108437890749</v>
       </c>
       <c r="K36" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>431.9315801834359</v>
@@ -37394,7 +37394,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N36" t="n">
-        <v>320.4631335880903</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O36" t="n">
         <v>464.5547166347826</v>
@@ -37403,7 +37403,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>7.497129510435722</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.3245640248311</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K38" t="n">
         <v>310.9067559407621</v>
@@ -37622,7 +37622,7 @@
         <v>88.02108437890749</v>
       </c>
       <c r="K39" t="n">
-        <v>7.497129510435751</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>431.9315801834359</v>
@@ -37634,13 +37634,13 @@
         <v>591.1925207054294</v>
       </c>
       <c r="O39" t="n">
-        <v>464.5547166347826</v>
+        <v>275.9930276141461</v>
       </c>
       <c r="P39" t="n">
         <v>360.0389258787872</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.083757102017931e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>118.3245640248321</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L42" t="n">
-        <v>431.9315801834359</v>
+        <v>249.2232774450042</v>
       </c>
       <c r="M42" t="n">
         <v>562.7675336002444</v>
@@ -37874,10 +37874,10 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P42" t="n">
-        <v>171.4772368581506</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.0588185310723</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>491.5483805673672</v>
       </c>
       <c r="N44" t="n">
-        <v>478.0164620162515</v>
+        <v>478.0164620162523</v>
       </c>
       <c r="O44" t="n">
         <v>398.6066938463955</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K45" t="n">
-        <v>278.2265166277749</v>
+        <v>243.3698911627993</v>
       </c>
       <c r="L45" t="n">
-        <v>413.203384792719</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>562.7675336002444</v>
@@ -38111,7 +38111,7 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q45" t="n">
         <v>196.0588185310723</v>
